--- a/Input/berger_ASFRs.xlsx
+++ b/Input/berger_ASFRs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmapil-my.sharepoint.com/personal/amcadams_cmap_illinois_gov/Documents/Documents/GitHub/DemographicForecasting/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amcadams\OneDrive - Chicago Metropolitan Agency for Planning\Documents\GitHub\DemographicForecasting\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -506,7 +506,7 @@
   <dimension ref="A1:AP33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,124 +647,124 @@
         <v>43</v>
       </c>
       <c r="C2">
-        <v>1.9082442682575982</v>
+        <v>1.9082442682575981E-3</v>
       </c>
       <c r="D2">
-        <v>0.91737678643266096</v>
+        <v>9.1737678643266098E-4</v>
       </c>
       <c r="E2">
-        <v>0.44930871624611141</v>
+        <v>4.493087162461114E-4</v>
       </c>
       <c r="F2">
-        <v>0.2544355984859879</v>
+        <v>2.5443559848598789E-4</v>
       </c>
       <c r="G2">
-        <v>0.11454213846341289</v>
+        <v>1.145421384634129E-4</v>
       </c>
       <c r="H2">
-        <v>5.3364888067728121E-3</v>
+        <v>5.3364888067728124E-6</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.21946223348034621</v>
+        <v>2.1946223348034622E-4</v>
       </c>
       <c r="K2">
-        <v>0.14951550346905762</v>
+        <v>1.4951550346905762E-4</v>
       </c>
       <c r="L2">
-        <v>8.724072604925226E-2</v>
+        <v>8.7240726049252253E-5</v>
       </c>
       <c r="M2">
-        <v>3.2637901220933685E-2</v>
+        <v>3.2637901220933688E-5</v>
       </c>
       <c r="N2">
-        <v>4.002366605079466E-3</v>
+        <v>4.002366605079466E-6</v>
       </c>
       <c r="O2">
-        <v>1.3341222016929333E-3</v>
+        <v>1.3341222016929333E-6</v>
       </c>
       <c r="P2">
-        <v>0.24044625248373208</v>
+        <v>2.4044625248373209E-4</v>
       </c>
       <c r="Q2">
-        <v>0.22645690648147365</v>
+        <v>2.2645690648147364E-4</v>
       </c>
       <c r="R2">
-        <v>0.21246756047921522</v>
+        <v>2.1246756047921521E-4</v>
       </c>
       <c r="S2">
-        <v>0.19847821447696035</v>
+        <v>1.9847821447696034E-4</v>
       </c>
       <c r="T2">
-        <v>0.18448886847470192</v>
+        <v>1.8448886847470192E-4</v>
       </c>
       <c r="U2">
-        <v>0.17049952247244349</v>
+        <v>1.7049952247244349E-4</v>
       </c>
       <c r="V2">
-        <v>0.15651017647018861</v>
+        <v>1.5651017647018862E-4</v>
       </c>
       <c r="W2">
-        <v>0.14252083046793018</v>
+        <v>1.4252083046793019E-4</v>
       </c>
       <c r="X2">
-        <v>0.12853148446567175</v>
+        <v>1.2853148446567174E-4</v>
       </c>
       <c r="Y2">
-        <v>0.10362157349774748</v>
+        <v>1.0362157349774748E-4</v>
       </c>
       <c r="Z2">
-        <v>9.2701008532085183E-2</v>
+        <v>9.2701008532085187E-5</v>
       </c>
       <c r="AA2">
-        <v>8.1780443566419336E-2</v>
+        <v>8.1780443566419333E-5</v>
       </c>
       <c r="AB2">
-        <v>7.0859878600757042E-2</v>
+        <v>7.0859878600757043E-5</v>
       </c>
       <c r="AC2">
-        <v>5.9939313635091196E-2</v>
+        <v>5.9939313635091195E-5</v>
       </c>
       <c r="AD2">
-        <v>4.9018748669428902E-2</v>
+        <v>4.9018748669428905E-5</v>
       </c>
       <c r="AE2">
-        <v>3.8098183703763056E-2</v>
+        <v>3.8098183703763058E-5</v>
       </c>
       <c r="AF2">
-        <v>2.7177618738100762E-2</v>
+        <v>2.7177618738100761E-5</v>
       </c>
       <c r="AG2">
-        <v>1.6257053772434915E-2</v>
+        <v>1.6257053772434913E-5</v>
       </c>
       <c r="AH2">
-        <v>4.8028399260953147E-3</v>
+        <v>4.8028399260953151E-6</v>
       </c>
       <c r="AI2">
-        <v>4.2691910454180082E-3</v>
+        <v>4.2691910454180084E-6</v>
       </c>
       <c r="AJ2">
-        <v>3.7355421647407017E-3</v>
+        <v>3.7355421647407016E-6</v>
       </c>
       <c r="AK2">
-        <v>3.2018932840636172E-3</v>
+        <v>3.2018932840636172E-6</v>
       </c>
       <c r="AL2">
-        <v>2.6682444033863106E-3</v>
+        <v>2.6682444033863105E-6</v>
       </c>
       <c r="AM2">
-        <v>2.1345955227090041E-3</v>
+        <v>2.1345955227090042E-6</v>
       </c>
       <c r="AN2">
-        <v>1.6009466420316976E-3</v>
+        <v>1.6009466420316977E-6</v>
       </c>
       <c r="AO2">
-        <v>1.067297761354391E-3</v>
+        <v>1.0672977613543911E-6</v>
       </c>
       <c r="AP2">
-        <v>5.3364888067708449E-4</v>
+        <v>5.336488806770845E-7</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
@@ -775,124 +775,124 @@
         <v>44</v>
       </c>
       <c r="C3">
-        <v>72.8179491488292</v>
+        <v>7.2817949148829206E-2</v>
       </c>
       <c r="D3">
-        <v>53.383352925170534</v>
+        <v>5.3383352925170532E-2</v>
       </c>
       <c r="E3">
-        <v>33.424972098313781</v>
+        <v>3.3424972098313778E-2</v>
       </c>
       <c r="F3">
-        <v>28.656425077827961</v>
+        <v>2.8656425077827962E-2</v>
       </c>
       <c r="G3">
-        <v>25.233230798167256</v>
+        <v>2.5233230798167257E-2</v>
       </c>
       <c r="H3">
-        <v>22.560967526167865</v>
+        <v>2.2560967526167864E-2</v>
       </c>
       <c r="I3">
-        <v>20.368728372679371</v>
+        <v>2.0368728372679369E-2</v>
       </c>
       <c r="J3">
-        <v>27.800626507912739</v>
+        <v>2.7800626507912738E-2</v>
       </c>
       <c r="K3">
-        <v>26.089029368082379</v>
+        <v>2.608902936808238E-2</v>
       </c>
       <c r="L3">
-        <v>24.565164980167424</v>
+        <v>2.4565164980167423E-2</v>
       </c>
       <c r="M3">
-        <v>23.229033344167647</v>
+        <v>2.3229033344167645E-2</v>
       </c>
       <c r="N3">
-        <v>22.012907737795729</v>
+        <v>2.2012907737795729E-2</v>
       </c>
       <c r="O3">
-        <v>20.9167881610515</v>
+        <v>2.0916788161051501E-2</v>
       </c>
       <c r="P3">
-        <v>28.314105649861858</v>
+        <v>2.8314105649861858E-2</v>
       </c>
       <c r="Q3">
-        <v>27.971786221895741</v>
+        <v>2.797178622189574E-2</v>
       </c>
       <c r="R3">
-        <v>27.629466793929737</v>
+        <v>2.7629466793929736E-2</v>
       </c>
       <c r="S3">
-        <v>27.287147365963619</v>
+        <v>2.7287147365963618E-2</v>
       </c>
       <c r="T3">
-        <v>26.944827937997616</v>
+        <v>2.6944827937997615E-2</v>
       </c>
       <c r="U3">
-        <v>26.602508510031498</v>
+        <v>2.6602508510031497E-2</v>
       </c>
       <c r="V3">
-        <v>26.260189082065381</v>
+        <v>2.6260189082065382E-2</v>
       </c>
       <c r="W3">
-        <v>25.917869654099377</v>
+        <v>2.5917869654099378E-2</v>
       </c>
       <c r="X3">
-        <v>25.575550226133259</v>
+        <v>2.557555022613326E-2</v>
       </c>
       <c r="Y3">
-        <v>24.966004470967277</v>
+        <v>2.4966004470967279E-2</v>
       </c>
       <c r="Z3">
-        <v>24.698778143767299</v>
+        <v>2.4698778143767298E-2</v>
       </c>
       <c r="AA3">
-        <v>24.431551816567435</v>
+        <v>2.4431551816567434E-2</v>
       </c>
       <c r="AB3">
-        <v>24.164325489367457</v>
+        <v>2.4164325489367457E-2</v>
       </c>
       <c r="AC3">
-        <v>23.897099162167592</v>
+        <v>2.3897099162167593E-2</v>
       </c>
       <c r="AD3">
-        <v>23.629872834967614</v>
+        <v>2.3629872834967616E-2</v>
       </c>
       <c r="AE3">
-        <v>23.362646507767636</v>
+        <v>2.3362646507767634E-2</v>
       </c>
       <c r="AF3">
-        <v>23.095420180567771</v>
+        <v>2.3095420180567771E-2</v>
       </c>
       <c r="AG3">
-        <v>22.828193853367793</v>
+        <v>2.2828193853367793E-2</v>
       </c>
       <c r="AH3">
-        <v>22.341743610819037</v>
+        <v>2.2341743610819038E-2</v>
       </c>
       <c r="AI3">
-        <v>22.122519695470203</v>
+        <v>2.2122519695470202E-2</v>
       </c>
       <c r="AJ3">
-        <v>21.903295780121312</v>
+        <v>2.1903295780121311E-2</v>
       </c>
       <c r="AK3">
-        <v>21.684071864772477</v>
+        <v>2.1684071864772479E-2</v>
       </c>
       <c r="AL3">
-        <v>21.464847949423643</v>
+        <v>2.1464847949423643E-2</v>
       </c>
       <c r="AM3">
-        <v>21.245624034074808</v>
+        <v>2.1245624034074807E-2</v>
       </c>
       <c r="AN3">
-        <v>21.026400118725917</v>
+        <v>2.1026400118725915E-2</v>
       </c>
       <c r="AO3">
-        <v>20.807176203377082</v>
+        <v>2.0807176203377083E-2</v>
       </c>
       <c r="AP3">
-        <v>20.587952288028248</v>
+        <v>2.0587952288028247E-2</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
@@ -903,124 +903,124 @@
         <v>45</v>
       </c>
       <c r="C4">
-        <v>120.97100631994752</v>
+        <v>0.12097100631994752</v>
       </c>
       <c r="D4">
-        <v>108.9029943082932</v>
+        <v>0.1089029943082932</v>
       </c>
       <c r="E4">
-        <v>78.215352989321801</v>
+        <v>7.8215352989321807E-2</v>
       </c>
       <c r="F4">
-        <v>74.363013612604902</v>
+        <v>7.4363013612604903E-2</v>
       </c>
       <c r="G4">
-        <v>71.597536820400478</v>
+        <v>7.1597536820400473E-2</v>
       </c>
       <c r="H4">
-        <v>69.438710456006405</v>
+        <v>6.94387104560064E-2</v>
       </c>
       <c r="I4">
-        <v>67.667678488012129</v>
+        <v>6.7667678488012126E-2</v>
       </c>
       <c r="J4">
-        <v>73.671644414553839</v>
+        <v>7.3671644414553844E-2</v>
       </c>
       <c r="K4">
-        <v>72.288906018451598</v>
+        <v>7.2288906018451601E-2</v>
       </c>
       <c r="L4">
-        <v>71.057830229301942</v>
+        <v>7.1057830229301941E-2</v>
       </c>
       <c r="M4">
-        <v>69.97841704710487</v>
+        <v>6.9978417047104863E-2</v>
       </c>
       <c r="N4">
-        <v>68.995952464007871</v>
+        <v>6.8995952464007873E-2</v>
       </c>
       <c r="O4">
-        <v>68.110436480010719</v>
+        <v>6.8110436480010722E-2</v>
       </c>
       <c r="P4">
-        <v>74.086465933384488</v>
+        <v>7.4086465933384485E-2</v>
       </c>
       <c r="Q4">
-        <v>73.809918254164131</v>
+        <v>7.3809918254164136E-2</v>
       </c>
       <c r="R4">
-        <v>73.53337057494366</v>
+        <v>7.3533370574943663E-2</v>
       </c>
       <c r="S4">
-        <v>73.25682289572319</v>
+        <v>7.3256822895723189E-2</v>
       </c>
       <c r="T4">
-        <v>72.980275216502719</v>
+        <v>7.2980275216502716E-2</v>
       </c>
       <c r="U4">
-        <v>72.703727537282248</v>
+        <v>7.2703727537282242E-2</v>
       </c>
       <c r="V4">
-        <v>72.427179858061891</v>
+        <v>7.2427179858061894E-2</v>
       </c>
       <c r="W4">
-        <v>72.15063217884142</v>
+        <v>7.215063217884142E-2</v>
       </c>
       <c r="X4">
-        <v>71.874084499620949</v>
+        <v>7.1874084499620947E-2</v>
       </c>
       <c r="Y4">
-        <v>71.381654183961018</v>
+        <v>7.1381654183961016E-2</v>
       </c>
       <c r="Z4">
-        <v>71.165771547521615</v>
+        <v>7.1165771547521614E-2</v>
       </c>
       <c r="AA4">
-        <v>70.949888911082212</v>
+        <v>7.0949888911082212E-2</v>
       </c>
       <c r="AB4">
-        <v>70.734006274642809</v>
+        <v>7.0734006274642811E-2</v>
       </c>
       <c r="AC4">
-        <v>70.518123638203406</v>
+        <v>7.0518123638203409E-2</v>
       </c>
       <c r="AD4">
-        <v>70.302241001764003</v>
+        <v>7.0302241001764007E-2</v>
       </c>
       <c r="AE4">
-        <v>70.0863583653246</v>
+        <v>7.0086358365324605E-2</v>
       </c>
       <c r="AF4">
-        <v>69.870475728885197</v>
+        <v>6.987047572888519E-2</v>
       </c>
       <c r="AG4">
-        <v>69.654593092445793</v>
+        <v>6.9654593092445788E-2</v>
       </c>
       <c r="AH4">
-        <v>69.261607259206983</v>
+        <v>6.9261607259206978E-2</v>
       </c>
       <c r="AI4">
-        <v>69.084504062407575</v>
+        <v>6.908450406240757E-2</v>
       </c>
       <c r="AJ4">
-        <v>68.907400865608167</v>
+        <v>6.8907400865608162E-2</v>
       </c>
       <c r="AK4">
-        <v>68.730297668808703</v>
+        <v>6.8730297668808699E-2</v>
       </c>
       <c r="AL4">
-        <v>68.553194472009295</v>
+        <v>6.8553194472009291E-2</v>
       </c>
       <c r="AM4">
-        <v>68.376091275209887</v>
+        <v>6.8376091275209883E-2</v>
       </c>
       <c r="AN4">
-        <v>68.198988078410423</v>
+        <v>6.8198988078410419E-2</v>
       </c>
       <c r="AO4">
-        <v>68.021884881611015</v>
+        <v>6.8021884881611011E-2</v>
       </c>
       <c r="AP4">
-        <v>67.844781684811608</v>
+        <v>6.7844781684811603E-2</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
@@ -1031,124 +1031,124 @@
         <v>46</v>
       </c>
       <c r="C5">
-        <v>124.60445996783878</v>
+        <v>0.12460445996783878</v>
       </c>
       <c r="D5">
-        <v>109.57380082509137</v>
+        <v>0.10957380082509137</v>
       </c>
       <c r="E5">
-        <v>92.569496761776932</v>
+        <v>9.2569496761776934E-2</v>
       </c>
       <c r="F5">
-        <v>89.673166147117215</v>
+        <v>8.967316614711722E-2</v>
       </c>
       <c r="G5">
-        <v>87.593978849704499</v>
+        <v>8.7593978849704504E-2</v>
       </c>
       <c r="H5">
-        <v>85.970893685214691</v>
+        <v>8.5970893685214697E-2</v>
       </c>
       <c r="I5">
-        <v>84.639366629357426</v>
+        <v>8.4639366629357421E-2</v>
       </c>
       <c r="J5">
-        <v>89.153369322764036</v>
+        <v>8.9153369322764034E-2</v>
       </c>
       <c r="K5">
-        <v>88.113775674057706</v>
+        <v>8.8113775674057704E-2</v>
       </c>
       <c r="L5">
-        <v>87.188207558582008</v>
+        <v>8.7188207558582004E-2</v>
       </c>
       <c r="M5">
-        <v>86.376664976337111</v>
+        <v>8.6376664976337114E-2</v>
       </c>
       <c r="N5">
-        <v>85.638011921250381</v>
+        <v>8.5638011921250382E-2</v>
       </c>
       <c r="O5">
-        <v>84.972248393321763</v>
+        <v>8.4972248393321764E-2</v>
       </c>
       <c r="P5">
-        <v>89.465247417375963</v>
+        <v>8.9465247417375965E-2</v>
       </c>
       <c r="Q5">
-        <v>89.257328687634697</v>
+        <v>8.9257328687634696E-2</v>
       </c>
       <c r="R5">
-        <v>89.049409957893431</v>
+        <v>8.9049409957893427E-2</v>
       </c>
       <c r="S5">
-        <v>88.841491228152108</v>
+        <v>8.8841491228152103E-2</v>
       </c>
       <c r="T5">
-        <v>88.633572498410842</v>
+        <v>8.8633572498410848E-2</v>
       </c>
       <c r="U5">
-        <v>88.425653768669576</v>
+        <v>8.8425653768669579E-2</v>
       </c>
       <c r="V5">
-        <v>88.217735038928311</v>
+        <v>8.821773503892831E-2</v>
       </c>
       <c r="W5">
-        <v>88.009816309187045</v>
+        <v>8.8009816309187042E-2</v>
       </c>
       <c r="X5">
-        <v>87.801897579445779</v>
+        <v>8.7801897579445773E-2</v>
       </c>
       <c r="Y5">
-        <v>87.431670333255511</v>
+        <v>8.743167033325551E-2</v>
       </c>
       <c r="Z5">
-        <v>87.269361816806509</v>
+        <v>8.7269361816806515E-2</v>
       </c>
       <c r="AA5">
-        <v>87.107053300357506</v>
+        <v>8.7107053300357506E-2</v>
       </c>
       <c r="AB5">
-        <v>86.944744783908561</v>
+        <v>8.6944744783908567E-2</v>
       </c>
       <c r="AC5">
-        <v>86.782436267459559</v>
+        <v>8.6782436267459559E-2</v>
       </c>
       <c r="AD5">
-        <v>86.620127751010614</v>
+        <v>8.662012775101062E-2</v>
       </c>
       <c r="AE5">
-        <v>86.457819234561612</v>
+        <v>8.6457819234561611E-2</v>
       </c>
       <c r="AF5">
-        <v>86.29551071811261</v>
+        <v>8.6295510718112603E-2</v>
       </c>
       <c r="AG5">
-        <v>86.133202201663664</v>
+        <v>8.6133202201663664E-2</v>
       </c>
       <c r="AH5">
-        <v>85.837740979628961</v>
+        <v>8.5837740979628957E-2</v>
       </c>
       <c r="AI5">
-        <v>85.70458827404326</v>
+        <v>8.5704588274043259E-2</v>
       </c>
       <c r="AJ5">
-        <v>85.571435568457503</v>
+        <v>8.5571435568457505E-2</v>
       </c>
       <c r="AK5">
-        <v>85.438282862871802</v>
+        <v>8.5438282862871806E-2</v>
       </c>
       <c r="AL5">
-        <v>85.305130157286044</v>
+        <v>8.5305130157286038E-2</v>
       </c>
       <c r="AM5">
-        <v>85.171977451700343</v>
+        <v>8.517197745170034E-2</v>
       </c>
       <c r="AN5">
-        <v>85.038824746114585</v>
+        <v>8.5038824746114586E-2</v>
       </c>
       <c r="AO5">
-        <v>84.905672040528884</v>
+        <v>8.4905672040528887E-2</v>
       </c>
       <c r="AP5">
-        <v>84.772519334943183</v>
+        <v>8.4772519334943189E-2</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.3">
@@ -1159,124 +1159,124 @@
         <v>47</v>
       </c>
       <c r="C6">
-        <v>96.253619626323797</v>
+        <v>9.6253619626323797E-2</v>
       </c>
       <c r="D6">
-        <v>107.36537494687568</v>
+        <v>0.10736537494687567</v>
       </c>
       <c r="E6">
-        <v>109.3884210910321</v>
+        <v>0.1093884210910321</v>
       </c>
       <c r="F6">
-        <v>111.98226704601613</v>
+        <v>0.11198226704601613</v>
       </c>
       <c r="G6">
-        <v>113.84430984380693</v>
+        <v>0.11384430984380693</v>
       </c>
       <c r="H6">
-        <v>115.29788453835232</v>
+        <v>0.11529788453835232</v>
       </c>
       <c r="I6">
-        <v>116.49035063676871</v>
+        <v>0.11649035063676871</v>
       </c>
       <c r="J6">
-        <v>112.44777774546384</v>
+        <v>0.11244777774546384</v>
       </c>
       <c r="K6">
-        <v>113.37879914435922</v>
+        <v>0.11337879914435922</v>
       </c>
       <c r="L6">
-        <v>114.20770351744324</v>
+        <v>0.11420770351744323</v>
       </c>
       <c r="M6">
-        <v>114.93449086471594</v>
+        <v>0.11493449086471594</v>
       </c>
       <c r="N6">
-        <v>115.59600106295642</v>
+        <v>0.11559600106295642</v>
       </c>
       <c r="O6">
-        <v>116.19223411216461</v>
+        <v>0.11619223411216462</v>
       </c>
       <c r="P6">
-        <v>112.16847132579522</v>
+        <v>0.11216847132579523</v>
       </c>
       <c r="Q6">
-        <v>112.3546756055743</v>
+        <v>0.1123546756055743</v>
       </c>
       <c r="R6">
-        <v>112.54087988535338</v>
+        <v>0.11254087988535337</v>
       </c>
       <c r="S6">
-        <v>112.72708416513245</v>
+        <v>0.11272708416513245</v>
       </c>
       <c r="T6">
-        <v>112.91328844491153</v>
+        <v>0.11291328844491152</v>
       </c>
       <c r="U6">
-        <v>113.09949272469061</v>
+        <v>0.11309949272469061</v>
       </c>
       <c r="V6">
-        <v>113.28569700446968</v>
+        <v>0.11328569700446968</v>
       </c>
       <c r="W6">
-        <v>113.47190128424876</v>
+        <v>0.11347190128424876</v>
       </c>
       <c r="X6">
-        <v>113.65810556402784</v>
+        <v>0.11365810556402783</v>
       </c>
       <c r="Y6">
-        <v>113.98966731326146</v>
+        <v>0.11398966731326146</v>
       </c>
       <c r="Z6">
-        <v>114.13502478271602</v>
+        <v>0.11413502478271602</v>
       </c>
       <c r="AA6">
-        <v>114.28038225217051</v>
+        <v>0.11428038225217051</v>
       </c>
       <c r="AB6">
-        <v>114.42573972162506</v>
+        <v>0.11442573972162506</v>
       </c>
       <c r="AC6">
-        <v>114.57109719107962</v>
+        <v>0.11457109719107962</v>
       </c>
       <c r="AD6">
-        <v>114.71645466053417</v>
+        <v>0.11471645466053416</v>
       </c>
       <c r="AE6">
-        <v>114.86181212998866</v>
+        <v>0.11486181212998867</v>
       </c>
       <c r="AF6">
-        <v>115.00716959944322</v>
+        <v>0.11500716959944321</v>
       </c>
       <c r="AG6">
-        <v>115.15252706889777</v>
+        <v>0.11515252706889777</v>
       </c>
       <c r="AH6">
-        <v>115.41713114819396</v>
+        <v>0.11541713114819396</v>
       </c>
       <c r="AI6">
-        <v>115.5363777580356</v>
+        <v>0.1155363777580356</v>
       </c>
       <c r="AJ6">
-        <v>115.65562436787724</v>
+        <v>0.11565562436787724</v>
       </c>
       <c r="AK6">
-        <v>115.77487097771888</v>
+        <v>0.11577487097771888</v>
       </c>
       <c r="AL6">
-        <v>115.89411758756052</v>
+        <v>0.11589411758756052</v>
       </c>
       <c r="AM6">
-        <v>116.01336419740215</v>
+        <v>0.11601336419740216</v>
       </c>
       <c r="AN6">
-        <v>116.13261080724379</v>
+        <v>0.1161326108072438</v>
       </c>
       <c r="AO6">
-        <v>116.25185741708543</v>
+        <v>0.11625185741708544</v>
       </c>
       <c r="AP6">
-        <v>116.37110402692707</v>
+        <v>0.11637110402692707</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.3">
@@ -1287,124 +1287,124 @@
         <v>48</v>
       </c>
       <c r="C7">
-        <v>39.875730600567202</v>
+        <v>3.9875730600567205E-2</v>
       </c>
       <c r="D7">
-        <v>50.275382544484629</v>
+        <v>5.0275382544484631E-2</v>
       </c>
       <c r="E7">
-        <v>56.36871470870625</v>
+        <v>5.6368714708706247E-2</v>
       </c>
       <c r="F7">
-        <v>59.373851203656585</v>
+        <v>5.9373851203656583E-2</v>
       </c>
       <c r="G7">
-        <v>61.531146919714253</v>
+        <v>6.1531146919714251E-2</v>
       </c>
       <c r="H7">
-        <v>63.215206204083572</v>
+        <v>6.3215206204083565E-2</v>
       </c>
       <c r="I7">
-        <v>64.596754473924491</v>
+        <v>6.4596754473924489E-2</v>
       </c>
       <c r="J7">
-        <v>59.913175132670972</v>
+        <v>5.9913175132670971E-2</v>
       </c>
       <c r="K7">
-        <v>60.991822990699802</v>
+        <v>6.0991822990699801E-2</v>
       </c>
       <c r="L7">
-        <v>61.952161740806559</v>
+        <v>6.1952161740806561E-2</v>
       </c>
       <c r="M7">
-        <v>62.794191382991187</v>
+        <v>6.2794191382991194E-2</v>
       </c>
       <c r="N7">
-        <v>63.560593271543837</v>
+        <v>6.3560593271543842E-2</v>
       </c>
       <c r="O7">
-        <v>64.251367406464283</v>
+        <v>6.4251367406464283E-2</v>
       </c>
       <c r="P7">
-        <v>59.589580775262334</v>
+        <v>5.9589580775262337E-2</v>
       </c>
       <c r="Q7">
-        <v>59.805310346868112</v>
+        <v>5.9805310346868111E-2</v>
       </c>
       <c r="R7">
-        <v>60.021039918473889</v>
+        <v>6.0021039918473892E-2</v>
       </c>
       <c r="S7">
-        <v>60.23676949007961</v>
+        <v>6.0236769490079611E-2</v>
       </c>
       <c r="T7">
-        <v>60.452499061685387</v>
+        <v>6.0452499061685386E-2</v>
       </c>
       <c r="U7">
-        <v>60.668228633291164</v>
+        <v>6.0668228633291167E-2</v>
       </c>
       <c r="V7">
-        <v>60.883958204896942</v>
+        <v>6.0883958204896942E-2</v>
       </c>
       <c r="W7">
-        <v>61.099687776502719</v>
+        <v>6.1099687776502716E-2</v>
       </c>
       <c r="X7">
-        <v>61.315417348108497</v>
+        <v>6.1315417348108497E-2</v>
       </c>
       <c r="Y7">
-        <v>61.699552848151143</v>
+        <v>6.1699552848151144E-2</v>
       </c>
       <c r="Z7">
-        <v>61.867958776588068</v>
+        <v>6.1867958776588065E-2</v>
       </c>
       <c r="AA7">
-        <v>62.036364705024994</v>
+        <v>6.2036364705024993E-2</v>
       </c>
       <c r="AB7">
-        <v>62.204770633461919</v>
+        <v>6.2204770633461921E-2</v>
       </c>
       <c r="AC7">
-        <v>62.373176561898902</v>
+        <v>6.2373176561898905E-2</v>
       </c>
       <c r="AD7">
-        <v>62.541582490335827</v>
+        <v>6.2541582490335826E-2</v>
       </c>
       <c r="AE7">
-        <v>62.709988418772753</v>
+        <v>6.2709988418772747E-2</v>
       </c>
       <c r="AF7">
-        <v>62.878394347209678</v>
+        <v>6.2878394347209682E-2</v>
       </c>
       <c r="AG7">
-        <v>63.046800275646603</v>
+        <v>6.3046800275646603E-2</v>
       </c>
       <c r="AH7">
-        <v>63.353361031067664</v>
+        <v>6.3353361031067659E-2</v>
       </c>
       <c r="AI7">
-        <v>63.491515858051741</v>
+        <v>6.3491515858051739E-2</v>
       </c>
       <c r="AJ7">
-        <v>63.629670685035876</v>
+        <v>6.3629670685035875E-2</v>
       </c>
       <c r="AK7">
-        <v>63.767825512019954</v>
+        <v>6.3767825512019954E-2</v>
       </c>
       <c r="AL7">
-        <v>63.905980339004032</v>
+        <v>6.3905980339004034E-2</v>
       </c>
       <c r="AM7">
-        <v>64.044135165988166</v>
+        <v>6.404413516598817E-2</v>
       </c>
       <c r="AN7">
-        <v>64.182289992972244</v>
+        <v>6.418228999297225E-2</v>
       </c>
       <c r="AO7">
-        <v>64.320444819956322</v>
+        <v>6.4320444819956316E-2</v>
       </c>
       <c r="AP7">
-        <v>64.458599646940399</v>
+        <v>6.4458599646940395E-2</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.3">
@@ -1415,124 +1415,124 @@
         <v>49</v>
       </c>
       <c r="C8">
-        <v>6.8126972969436803</v>
+        <v>6.8126972969436801E-3</v>
       </c>
       <c r="D8">
-        <v>9.8313033625983177</v>
+        <v>9.8313033625983173E-3</v>
       </c>
       <c r="E8">
-        <v>12.904989929439383</v>
+        <v>1.2904989929439383E-2</v>
       </c>
       <c r="F8">
-        <v>13.892475968711679</v>
+        <v>1.3892475968711678E-2</v>
       </c>
       <c r="G8">
-        <v>14.601362039533589</v>
+        <v>1.460136203953359E-2</v>
       </c>
       <c r="H8">
-        <v>15.154742904401447</v>
+        <v>1.5154742904401447E-2</v>
       </c>
       <c r="I8">
-        <v>15.608718832397109</v>
+        <v>1.5608718832397108E-2</v>
       </c>
       <c r="J8">
-        <v>14.069697486417169</v>
+        <v>1.4069697486417169E-2</v>
       </c>
       <c r="K8">
-        <v>14.424140521828122</v>
+        <v>1.4424140521828121E-2</v>
       </c>
       <c r="L8">
-        <v>14.73970725575056</v>
+        <v>1.4739707255750559E-2</v>
       </c>
       <c r="M8">
-        <v>15.016397688184483</v>
+        <v>1.5016397688184482E-2</v>
       </c>
       <c r="N8">
-        <v>15.268236886400359</v>
+        <v>1.5268236886400359E-2</v>
       </c>
       <c r="O8">
-        <v>15.495224850398188</v>
+        <v>1.5495224850398188E-2</v>
       </c>
       <c r="P8">
-        <v>13.963364575793889</v>
+        <v>1.3963364575793889E-2</v>
       </c>
       <c r="Q8">
-        <v>14.034253182876085</v>
+        <v>1.4034253182876086E-2</v>
       </c>
       <c r="R8">
-        <v>14.105141789958282</v>
+        <v>1.4105141789958281E-2</v>
       </c>
       <c r="S8">
-        <v>14.176030397040449</v>
+        <v>1.417603039704045E-2</v>
       </c>
       <c r="T8">
-        <v>14.246919004122645</v>
+        <v>1.4246919004122645E-2</v>
       </c>
       <c r="U8">
-        <v>14.317807611204842</v>
+        <v>1.4317807611204842E-2</v>
       </c>
       <c r="V8">
-        <v>14.388696218287038</v>
+        <v>1.4388696218287037E-2</v>
       </c>
       <c r="W8">
-        <v>14.459584825369234</v>
+        <v>1.4459584825369234E-2</v>
       </c>
       <c r="X8">
-        <v>14.530473432451402</v>
+        <v>1.4530473432451401E-2</v>
       </c>
       <c r="Y8">
-        <v>14.656700126020382</v>
+        <v>1.4656700126020382E-2</v>
       </c>
       <c r="Z8">
-        <v>14.712038212507167</v>
+        <v>1.4712038212507167E-2</v>
       </c>
       <c r="AA8">
-        <v>14.767376298993952</v>
+        <v>1.4767376298993952E-2</v>
       </c>
       <c r="AB8">
-        <v>14.822714385480737</v>
+        <v>1.4822714385480737E-2</v>
       </c>
       <c r="AC8">
-        <v>14.878052471967521</v>
+        <v>1.4878052471967522E-2</v>
       </c>
       <c r="AD8">
-        <v>14.933390558454306</v>
+        <v>1.4933390558454307E-2</v>
       </c>
       <c r="AE8">
-        <v>14.988728644941091</v>
+        <v>1.4988728644941092E-2</v>
       </c>
       <c r="AF8">
-        <v>15.044066731427876</v>
+        <v>1.5044066731427875E-2</v>
       </c>
       <c r="AG8">
-        <v>15.09940481791466</v>
+        <v>1.509940481791466E-2</v>
       </c>
       <c r="AH8">
-        <v>15.200140497201005</v>
+        <v>1.5200140497201005E-2</v>
       </c>
       <c r="AI8">
-        <v>15.245538090000565</v>
+        <v>1.5245538090000565E-2</v>
       </c>
       <c r="AJ8">
-        <v>15.290935682800139</v>
+        <v>1.529093568280014E-2</v>
       </c>
       <c r="AK8">
-        <v>15.336333275599699</v>
+        <v>1.53363332755997E-2</v>
       </c>
       <c r="AL8">
-        <v>15.381730868399274</v>
+        <v>1.5381730868399274E-2</v>
       </c>
       <c r="AM8">
-        <v>15.427128461198834</v>
+        <v>1.5427128461198834E-2</v>
       </c>
       <c r="AN8">
-        <v>15.472526053998408</v>
+        <v>1.5472526053998409E-2</v>
       </c>
       <c r="AO8">
-        <v>15.517923646797968</v>
+        <v>1.5517923646797967E-2</v>
       </c>
       <c r="AP8">
-        <v>15.563321239597528</v>
+        <v>1.5563321239597527E-2</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
@@ -1543,124 +1543,124 @@
         <v>50</v>
       </c>
       <c r="C9">
-        <v>0.27162673699559942</v>
+        <v>2.7162673699559944E-4</v>
       </c>
       <c r="D9">
-        <v>0.46981402856915522</v>
+        <v>4.6981402856915522E-4</v>
       </c>
       <c r="E9">
-        <v>0.79673434147208577</v>
+        <v>7.9673434147208575E-4</v>
       </c>
       <c r="F9">
-        <v>0.89598641964894477</v>
+        <v>8.9598641964894481E-4</v>
       </c>
       <c r="G9">
-        <v>0.96723645551937776</v>
+        <v>9.6723645551937776E-4</v>
       </c>
       <c r="H9">
-        <v>1.0228566857576886</v>
+        <v>1.0228566857576886E-3</v>
       </c>
       <c r="I9">
-        <v>1.068485740249479</v>
+        <v>1.068485740249479E-3</v>
       </c>
       <c r="J9">
-        <v>0.91379892861655243</v>
+        <v>9.1379892861655242E-4</v>
       </c>
       <c r="K9">
-        <v>0.94942394655176976</v>
+        <v>9.4942394655176971E-4</v>
       </c>
       <c r="L9">
-        <v>0.98114151307895625</v>
+        <v>9.8114151307895632E-4</v>
       </c>
       <c r="M9">
-        <v>1.0089516281981119</v>
+        <v>1.0089516281981119E-3</v>
       </c>
       <c r="N9">
-        <v>1.0342639493806356</v>
+        <v>1.0342639493806356E-3</v>
       </c>
       <c r="O9">
-        <v>1.0570784766265309</v>
+        <v>1.0570784766265309E-3</v>
       </c>
       <c r="P9">
-        <v>0.90311142323598759</v>
+        <v>9.0311142323598755E-4</v>
       </c>
       <c r="Q9">
-        <v>0.91023642682303141</v>
+        <v>9.1023642682303138E-4</v>
       </c>
       <c r="R9">
-        <v>0.91736143041007345</v>
+        <v>9.1736143041007347E-4</v>
       </c>
       <c r="S9">
-        <v>0.92448643399711727</v>
+        <v>9.2448643399711729E-4</v>
       </c>
       <c r="T9">
-        <v>0.9316114375841611</v>
+        <v>9.3161143758416112E-4</v>
       </c>
       <c r="U9">
-        <v>0.93873644117120314</v>
+        <v>9.387364411712031E-4</v>
       </c>
       <c r="V9">
-        <v>0.94586144475824696</v>
+        <v>9.4586144475824693E-4</v>
       </c>
       <c r="W9">
-        <v>0.95298644834529078</v>
+        <v>9.5298644834529076E-4</v>
       </c>
       <c r="X9">
-        <v>0.9601114519323346</v>
+        <v>9.6011145193233458E-4</v>
       </c>
       <c r="Y9">
-        <v>0.97279847854320955</v>
+        <v>9.7279847854320959E-4</v>
       </c>
       <c r="Z9">
-        <v>0.97836050156704069</v>
+        <v>9.7836050156704067E-4</v>
       </c>
       <c r="AA9">
-        <v>0.98392252459087182</v>
+        <v>9.8392252459087175E-4</v>
       </c>
       <c r="AB9">
-        <v>0.98948454761470295</v>
+        <v>9.8948454761470304E-4</v>
       </c>
       <c r="AC9">
-        <v>0.99504657063853408</v>
+        <v>9.9504657063853412E-4</v>
       </c>
       <c r="AD9">
-        <v>1.0006085936623652</v>
+        <v>1.0006085936623652E-3</v>
       </c>
       <c r="AE9">
-        <v>1.0061706166861963</v>
+        <v>1.0061706166861963E-3</v>
       </c>
       <c r="AF9">
-        <v>1.0117326397100275</v>
+        <v>1.0117326397100276E-3</v>
       </c>
       <c r="AG9">
-        <v>1.0172946627338586</v>
+        <v>1.0172946627338586E-3</v>
       </c>
       <c r="AH9">
-        <v>1.0274195912068684</v>
+        <v>1.0274195912068685E-3</v>
       </c>
       <c r="AI9">
-        <v>1.0319824966560471</v>
+        <v>1.0319824966560471E-3</v>
       </c>
       <c r="AJ9">
-        <v>1.0365454021052258</v>
+        <v>1.0365454021052259E-3</v>
       </c>
       <c r="AK9">
-        <v>1.0411083075544045</v>
+        <v>1.0411083075544045E-3</v>
       </c>
       <c r="AL9">
-        <v>1.0456712130035832</v>
+        <v>1.0456712130035833E-3</v>
       </c>
       <c r="AM9">
-        <v>1.0502341184527637</v>
+        <v>1.0502341184527638E-3</v>
       </c>
       <c r="AN9">
-        <v>1.0547970239019424</v>
+        <v>1.0547970239019424E-3</v>
       </c>
       <c r="AO9">
-        <v>1.0593599293511211</v>
+        <v>1.0593599293511212E-3</v>
       </c>
       <c r="AP9">
-        <v>1.0639228348002998</v>
+        <v>1.0639228348002998E-3</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
@@ -1671,124 +1671,124 @@
         <v>43</v>
       </c>
       <c r="C10">
-        <v>1.1868060058682073</v>
+        <v>1.1868060058682073E-3</v>
       </c>
       <c r="D10">
-        <v>1.0108761369538684</v>
+        <v>1.0108761369538683E-3</v>
       </c>
       <c r="E10">
-        <v>0.42483891524463641</v>
+        <v>4.248389152446364E-4</v>
       </c>
       <c r="F10">
-        <v>0.3603092706341563</v>
+        <v>3.6030927063415632E-4</v>
       </c>
       <c r="G10">
-        <v>0.31398540943489545</v>
+        <v>3.1398540943489546E-4</v>
       </c>
       <c r="H10">
-        <v>0.27782340903792946</v>
+        <v>2.7782340903792946E-4</v>
       </c>
       <c r="I10">
-        <v>0.24815726275310571</v>
+        <v>2.4815726275310572E-4</v>
       </c>
       <c r="J10">
-        <v>0.34872830533434218</v>
+        <v>3.487283053343422E-4</v>
       </c>
       <c r="K10">
-        <v>0.32556637473471106</v>
+        <v>3.2556637473471104E-4</v>
       </c>
       <c r="L10">
-        <v>0.30494490933565377</v>
+        <v>3.0494490933565379E-4</v>
       </c>
       <c r="M10">
-        <v>0.2868639091371703</v>
+        <v>2.8686390913717033E-4</v>
       </c>
       <c r="N10">
-        <v>0.27040687246672324</v>
+        <v>2.7040687246672322E-4</v>
       </c>
       <c r="O10">
-        <v>0.25557379932431168</v>
+        <v>2.555737993243117E-4</v>
       </c>
       <c r="P10">
-        <v>0.35567688451423152</v>
+        <v>3.5567688451423153E-4</v>
       </c>
       <c r="Q10">
-        <v>0.35104449839430529</v>
+        <v>3.5104449839430527E-4</v>
       </c>
       <c r="R10">
-        <v>0.34641211227437907</v>
+        <v>3.4641211227437907E-4</v>
       </c>
       <c r="S10">
-        <v>0.34177972615445285</v>
+        <v>3.4177972615445282E-4</v>
       </c>
       <c r="T10">
-        <v>0.33714734003452662</v>
+        <v>3.3714734003452662E-4</v>
       </c>
       <c r="U10">
-        <v>0.3325149539146004</v>
+        <v>3.3251495391460042E-4</v>
       </c>
       <c r="V10">
-        <v>0.32788256779467417</v>
+        <v>3.2788256779467417E-4</v>
       </c>
       <c r="W10">
-        <v>0.32325018167474795</v>
+        <v>3.2325018167474797E-4</v>
       </c>
       <c r="X10">
-        <v>0.3186177955548235</v>
+        <v>3.186177955548235E-4</v>
       </c>
       <c r="Y10">
-        <v>0.31036920939519863</v>
+        <v>3.1036920939519862E-4</v>
       </c>
       <c r="Z10">
-        <v>0.30675300935550176</v>
+        <v>3.0675300935550177E-4</v>
       </c>
       <c r="AA10">
-        <v>0.30313680931580489</v>
+        <v>3.0313680931580488E-4</v>
       </c>
       <c r="AB10">
-        <v>0.29952060927610891</v>
+        <v>2.995206092761089E-4</v>
       </c>
       <c r="AC10">
-        <v>0.29590440923641204</v>
+        <v>2.9590440923641206E-4</v>
       </c>
       <c r="AD10">
-        <v>0.29228820919671517</v>
+        <v>2.9228820919671516E-4</v>
       </c>
       <c r="AE10">
-        <v>0.28867200915701918</v>
+        <v>2.8867200915701918E-4</v>
       </c>
       <c r="AF10">
-        <v>0.28505580911732231</v>
+        <v>2.8505580911732234E-4</v>
       </c>
       <c r="AG10">
-        <v>0.28143960907762544</v>
+        <v>2.8143960907762544E-4</v>
       </c>
       <c r="AH10">
-        <v>0.27485679440944732</v>
+        <v>2.7485679440944732E-4</v>
       </c>
       <c r="AI10">
-        <v>0.27189017978096519</v>
+        <v>2.7189017978096518E-4</v>
       </c>
       <c r="AJ10">
-        <v>0.26892356515248217</v>
+        <v>2.6892356515248217E-4</v>
       </c>
       <c r="AK10">
-        <v>0.26595695052400004</v>
+        <v>2.6595695052400003E-4</v>
       </c>
       <c r="AL10">
-        <v>0.2629903358955179</v>
+        <v>2.6299033589551789E-4</v>
       </c>
       <c r="AM10">
-        <v>0.26002372126703577</v>
+        <v>2.6002372126703575E-4</v>
       </c>
       <c r="AN10">
-        <v>0.25705710663855275</v>
+        <v>2.5705710663855274E-4</v>
       </c>
       <c r="AO10">
-        <v>0.25409049201007061</v>
+        <v>2.540904920100706E-4</v>
       </c>
       <c r="AP10">
-        <v>0.25112387738158848</v>
+        <v>2.5112387738158846E-4</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
@@ -1799,124 +1799,124 @@
         <v>44</v>
       </c>
       <c r="C11">
-        <v>62.068597628573905</v>
+        <v>6.2068597628573904E-2</v>
       </c>
       <c r="D11">
-        <v>48.399666298483396</v>
+        <v>4.8399666298483399E-2</v>
       </c>
       <c r="E11">
-        <v>36.373526745240255</v>
+        <v>3.6373526745240255E-2</v>
       </c>
       <c r="F11">
-        <v>33.278488752775715</v>
+        <v>3.3278488752775712E-2</v>
       </c>
       <c r="G11">
-        <v>31.056655497148554</v>
+        <v>3.1056655497148554E-2</v>
       </c>
       <c r="H11">
-        <v>29.322215988179831</v>
+        <v>2.9322215988179832E-2</v>
       </c>
       <c r="I11">
-        <v>27.89933739655299</v>
+        <v>2.7899337396552992E-2</v>
       </c>
       <c r="J11">
-        <v>32.723030438868932</v>
+        <v>3.2723030438868934E-2</v>
       </c>
       <c r="K11">
-        <v>31.612113811055337</v>
+        <v>3.1612113811055338E-2</v>
       </c>
       <c r="L11">
-        <v>30.623045619906407</v>
+        <v>3.0623045619906406E-2</v>
       </c>
       <c r="M11">
-        <v>29.755825865422025</v>
+        <v>2.9755825865422025E-2</v>
       </c>
       <c r="N11">
-        <v>28.966496340273125</v>
+        <v>2.8966496340273123E-2</v>
       </c>
       <c r="O11">
-        <v>28.255057044459704</v>
+        <v>2.8255057044459703E-2</v>
       </c>
       <c r="P11">
-        <v>33.056305427212976</v>
+        <v>3.3056305427212974E-2</v>
       </c>
       <c r="Q11">
-        <v>32.83412210165028</v>
+        <v>3.2834122101650279E-2</v>
       </c>
       <c r="R11">
-        <v>32.611938776087584</v>
+        <v>3.2611938776087583E-2</v>
       </c>
       <c r="S11">
-        <v>32.389755450524831</v>
+        <v>3.2389755450524832E-2</v>
       </c>
       <c r="T11">
-        <v>32.167572124962135</v>
+        <v>3.2167572124962136E-2</v>
       </c>
       <c r="U11">
-        <v>31.945388799399439</v>
+        <v>3.1945388799399441E-2</v>
       </c>
       <c r="V11">
-        <v>31.723205473836686</v>
+        <v>3.1723205473836683E-2</v>
       </c>
       <c r="W11">
-        <v>31.501022148273989</v>
+        <v>3.1501022148273987E-2</v>
       </c>
       <c r="X11">
-        <v>31.278838822711293</v>
+        <v>3.1278838822711291E-2</v>
       </c>
       <c r="Y11">
-        <v>30.883211546251744</v>
+        <v>3.0883211546251742E-2</v>
       </c>
       <c r="Z11">
-        <v>30.709767595354833</v>
+        <v>3.0709767595354834E-2</v>
       </c>
       <c r="AA11">
-        <v>30.53632364445798</v>
+        <v>3.0536323644457981E-2</v>
       </c>
       <c r="AB11">
-        <v>30.362879693561126</v>
+        <v>3.0362879693561128E-2</v>
       </c>
       <c r="AC11">
-        <v>30.189435742664216</v>
+        <v>3.0189435742664215E-2</v>
       </c>
       <c r="AD11">
-        <v>30.015991791767362</v>
+        <v>3.0015991791767362E-2</v>
       </c>
       <c r="AE11">
-        <v>29.842547840870509</v>
+        <v>2.9842547840870509E-2</v>
       </c>
       <c r="AF11">
-        <v>29.669103889973599</v>
+        <v>2.9669103889973597E-2</v>
       </c>
       <c r="AG11">
-        <v>29.495659939076745</v>
+        <v>2.9495659939076744E-2</v>
       </c>
       <c r="AH11">
-        <v>29.179928129017128</v>
+        <v>2.9179928129017128E-2</v>
       </c>
       <c r="AI11">
-        <v>29.037640269854478</v>
+        <v>2.9037640269854479E-2</v>
       </c>
       <c r="AJ11">
-        <v>28.895352410691771</v>
+        <v>2.8895352410691771E-2</v>
       </c>
       <c r="AK11">
-        <v>28.753064551529064</v>
+        <v>2.8753064551529064E-2</v>
       </c>
       <c r="AL11">
-        <v>28.610776692366414</v>
+        <v>2.8610776692366415E-2</v>
       </c>
       <c r="AM11">
-        <v>28.468488833203708</v>
+        <v>2.8468488833203708E-2</v>
       </c>
       <c r="AN11">
-        <v>28.326200974041058</v>
+        <v>2.8326200974041059E-2</v>
       </c>
       <c r="AO11">
-        <v>28.183913114878351</v>
+        <v>2.8183913114878351E-2</v>
       </c>
       <c r="AP11">
-        <v>28.041625255715644</v>
+        <v>2.8041625255715644E-2</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
@@ -1927,124 +1927,124 @@
         <v>45</v>
       </c>
       <c r="C12">
-        <v>124.10196566654096</v>
+        <v>0.12410196566654096</v>
       </c>
       <c r="D12">
-        <v>119.75732307221357</v>
+        <v>0.11975732307221357</v>
       </c>
       <c r="E12">
-        <v>94.494816175064088</v>
+        <v>9.4494816175064084E-2</v>
       </c>
       <c r="F12">
-        <v>92.10678249663664</v>
+        <v>9.2106782496636647E-2</v>
       </c>
       <c r="G12">
-        <v>90.392486046898128</v>
+        <v>9.0392486046898132E-2</v>
       </c>
       <c r="H12">
-        <v>89.054247236681036</v>
+        <v>8.9054247236681039E-2</v>
       </c>
       <c r="I12">
-        <v>87.956399001734937</v>
+        <v>8.7956399001734936E-2</v>
       </c>
       <c r="J12">
-        <v>91.67820838420198</v>
+        <v>9.1678208384201987E-2</v>
       </c>
       <c r="K12">
-        <v>90.821060159332774</v>
+        <v>9.0821060159332778E-2</v>
       </c>
       <c r="L12">
-        <v>90.057926344343855</v>
+        <v>9.0057926344343855E-2</v>
       </c>
       <c r="M12">
-        <v>89.388806939235337</v>
+        <v>8.9388806939235343E-2</v>
       </c>
       <c r="N12">
-        <v>88.77978517794449</v>
+        <v>8.8779785177944492E-2</v>
       </c>
       <c r="O12">
-        <v>88.230861060471454</v>
+        <v>8.8230861060471455E-2</v>
       </c>
       <c r="P12">
-        <v>91.935352851662799</v>
+        <v>9.1935352851662794E-2</v>
       </c>
       <c r="Q12">
-        <v>91.763923206688958</v>
+        <v>9.1763923206688955E-2</v>
       </c>
       <c r="R12">
-        <v>91.59249356171506</v>
+        <v>9.159249356171506E-2</v>
       </c>
       <c r="S12">
-        <v>91.421063916741218</v>
+        <v>9.1421063916741221E-2</v>
       </c>
       <c r="T12">
-        <v>91.249634271767377</v>
+        <v>9.1249634271767383E-2</v>
       </c>
       <c r="U12">
-        <v>91.078204626793536</v>
+        <v>9.107820462679353E-2</v>
       </c>
       <c r="V12">
-        <v>90.906774981819694</v>
+        <v>9.0906774981819691E-2</v>
       </c>
       <c r="W12">
-        <v>90.735345336845796</v>
+        <v>9.0735345336845796E-2</v>
       </c>
       <c r="X12">
-        <v>90.563915691871955</v>
+        <v>9.0563915691871957E-2</v>
       </c>
       <c r="Y12">
-        <v>90.258662165876444</v>
+        <v>9.0258662165876441E-2</v>
       </c>
       <c r="Z12">
-        <v>90.124838284854718</v>
+        <v>9.0124838284854722E-2</v>
       </c>
       <c r="AA12">
-        <v>89.991014403833049</v>
+        <v>8.9991014403833045E-2</v>
       </c>
       <c r="AB12">
-        <v>89.857190522811322</v>
+        <v>8.9857190522811325E-2</v>
       </c>
       <c r="AC12">
-        <v>89.723366641789596</v>
+        <v>8.9723366641789593E-2</v>
       </c>
       <c r="AD12">
-        <v>89.58954276076787</v>
+        <v>8.9589542760767873E-2</v>
       </c>
       <c r="AE12">
-        <v>89.4557188797462</v>
+        <v>8.9455718879746196E-2</v>
       </c>
       <c r="AF12">
-        <v>89.321894998724474</v>
+        <v>8.9321894998724477E-2</v>
       </c>
       <c r="AG12">
-        <v>89.188071117702748</v>
+        <v>8.9188071117702744E-2</v>
       </c>
       <c r="AH12">
-        <v>88.944462413186415</v>
+        <v>8.8944462413186418E-2</v>
       </c>
       <c r="AI12">
-        <v>88.834677589691807</v>
+        <v>8.883467758969181E-2</v>
       </c>
       <c r="AJ12">
-        <v>88.7248927661972</v>
+        <v>8.8724892766197203E-2</v>
       </c>
       <c r="AK12">
-        <v>88.615107942702565</v>
+        <v>8.8615107942702567E-2</v>
       </c>
       <c r="AL12">
-        <v>88.505323119207958</v>
+        <v>8.850532311920796E-2</v>
       </c>
       <c r="AM12">
-        <v>88.395538295713351</v>
+        <v>8.8395538295713352E-2</v>
       </c>
       <c r="AN12">
-        <v>88.285753472218744</v>
+        <v>8.8285753472218745E-2</v>
       </c>
       <c r="AO12">
-        <v>88.175968648724137</v>
+        <v>8.8175968648724137E-2</v>
       </c>
       <c r="AP12">
-        <v>88.06618382522953</v>
+        <v>8.806618382522953E-2</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
@@ -2055,124 +2055,124 @@
         <v>46</v>
       </c>
       <c r="C13">
-        <v>129.25100165352021</v>
+        <v>0.12925100165352021</v>
       </c>
       <c r="D13">
-        <v>128.75362743849502</v>
+        <v>0.12875362743849503</v>
       </c>
       <c r="E13">
-        <v>121.69416594300151</v>
+        <v>0.1216941659430015</v>
       </c>
       <c r="F13">
-        <v>123.09654787955039</v>
+        <v>0.12309654787955039</v>
       </c>
       <c r="G13">
-        <v>124.10327504454847</v>
+        <v>0.12410327504454846</v>
       </c>
       <c r="H13">
-        <v>124.88916091843319</v>
+        <v>0.12488916091843319</v>
       </c>
       <c r="I13">
-        <v>125.53387650501335</v>
+        <v>0.12553387650501335</v>
       </c>
       <c r="J13">
-        <v>123.3482296707999</v>
+        <v>0.12334822967079989</v>
       </c>
       <c r="K13">
-        <v>123.85159325329894</v>
+        <v>0.12385159325329895</v>
       </c>
       <c r="L13">
-        <v>124.29974651301966</v>
+        <v>0.12429974651301966</v>
       </c>
       <c r="M13">
-        <v>124.692689449962</v>
+        <v>0.12469268944996201</v>
       </c>
       <c r="N13">
-        <v>125.05033981507825</v>
+        <v>0.12505033981507824</v>
       </c>
       <c r="O13">
-        <v>125.37269760836833</v>
+        <v>0.12537269760836833</v>
       </c>
       <c r="P13">
-        <v>123.19722059605019</v>
+        <v>0.12319722059605019</v>
       </c>
       <c r="Q13">
-        <v>123.29789331254997</v>
+        <v>0.12329789331254998</v>
       </c>
       <c r="R13">
-        <v>123.39856602904979</v>
+        <v>0.12339856602904979</v>
       </c>
       <c r="S13">
-        <v>123.4992387455496</v>
+        <v>0.12349923874554961</v>
       </c>
       <c r="T13">
-        <v>123.59991146204942</v>
+        <v>0.12359991146204942</v>
       </c>
       <c r="U13">
-        <v>123.70058417854924</v>
+        <v>0.12370058417854923</v>
       </c>
       <c r="V13">
-        <v>123.80125689504902</v>
+        <v>0.12380125689504902</v>
       </c>
       <c r="W13">
-        <v>123.90192961154884</v>
+        <v>0.12390192961154883</v>
       </c>
       <c r="X13">
-        <v>124.00260232804865</v>
+        <v>0.12400260232804865</v>
       </c>
       <c r="Y13">
-        <v>124.18186363193693</v>
+        <v>0.12418186363193694</v>
       </c>
       <c r="Z13">
-        <v>124.26045221932542</v>
+        <v>0.12426045221932541</v>
       </c>
       <c r="AA13">
-        <v>124.33904080671387</v>
+        <v>0.12433904080671387</v>
       </c>
       <c r="AB13">
-        <v>124.41762939410235</v>
+        <v>0.12441762939410235</v>
       </c>
       <c r="AC13">
-        <v>124.49621798149083</v>
+        <v>0.12449621798149083</v>
       </c>
       <c r="AD13">
-        <v>124.57480656887931</v>
+        <v>0.12457480656887931</v>
       </c>
       <c r="AE13">
-        <v>124.65339515626776</v>
+        <v>0.12465339515626776</v>
       </c>
       <c r="AF13">
-        <v>124.73198374365624</v>
+        <v>0.12473198374365624</v>
       </c>
       <c r="AG13">
-        <v>124.81057233104472</v>
+        <v>0.12481057233104473</v>
       </c>
       <c r="AH13">
-        <v>124.95363247709122</v>
+        <v>0.12495363247709122</v>
       </c>
       <c r="AI13">
-        <v>125.01810403574922</v>
+        <v>0.12501810403574923</v>
       </c>
       <c r="AJ13">
-        <v>125.08257559440725</v>
+        <v>0.12508257559440725</v>
       </c>
       <c r="AK13">
-        <v>125.14704715306527</v>
+        <v>0.12514704715306527</v>
       </c>
       <c r="AL13">
-        <v>125.21151871172327</v>
+        <v>0.12521151871172329</v>
       </c>
       <c r="AM13">
-        <v>125.2759902703813</v>
+        <v>0.1252759902703813</v>
       </c>
       <c r="AN13">
-        <v>125.3404618290393</v>
+        <v>0.1253404618290393</v>
       </c>
       <c r="AO13">
-        <v>125.40493338769733</v>
+        <v>0.12540493338769731</v>
       </c>
       <c r="AP13">
-        <v>125.46940494635535</v>
+        <v>0.12546940494635536</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
@@ -2183,124 +2183,124 @@
         <v>47</v>
       </c>
       <c r="C14">
-        <v>72.872323408166636</v>
+        <v>7.2872323408166642E-2</v>
       </c>
       <c r="D14">
-        <v>86.525502791045355</v>
+        <v>8.6525502791045358E-2</v>
       </c>
       <c r="E14">
-        <v>92.8442770591125</v>
+        <v>9.2844277059112496E-2</v>
       </c>
       <c r="F14">
-        <v>96.415458288034984</v>
+        <v>9.641545828803498E-2</v>
       </c>
       <c r="G14">
-        <v>98.979100232208111</v>
+        <v>9.8979100232208114E-2</v>
       </c>
       <c r="H14">
-        <v>100.98036736760712</v>
+        <v>0.10098036736760711</v>
       </c>
       <c r="I14">
-        <v>102.62214279324807</v>
+        <v>0.10262214279324808</v>
       </c>
       <c r="J14">
-        <v>97.05636877407818</v>
+        <v>9.7056368774078181E-2</v>
       </c>
       <c r="K14">
-        <v>98.338189746164801</v>
+        <v>9.8338189746164803E-2</v>
       </c>
       <c r="L14">
-        <v>99.47941701605788</v>
+        <v>9.9479417016057878E-2</v>
       </c>
       <c r="M14">
-        <v>100.48005058375742</v>
+        <v>0.10048005058375742</v>
       </c>
       <c r="N14">
-        <v>101.3908112240174</v>
+        <v>0.1013908112240174</v>
       </c>
       <c r="O14">
-        <v>102.21169893683788</v>
+        <v>0.10221169893683787</v>
       </c>
       <c r="P14">
-        <v>96.671822482452228</v>
+        <v>9.6671822482452222E-2</v>
       </c>
       <c r="Q14">
-        <v>96.928186676869529</v>
+        <v>9.6928186676869532E-2</v>
       </c>
       <c r="R14">
-        <v>97.184550871286831</v>
+        <v>9.7184550871286829E-2</v>
       </c>
       <c r="S14">
-        <v>97.440915065704246</v>
+        <v>9.7440915065704251E-2</v>
       </c>
       <c r="T14">
-        <v>97.697279260121547</v>
+        <v>9.7697279260121547E-2</v>
       </c>
       <c r="U14">
-        <v>97.953643454538849</v>
+        <v>9.7953643454538844E-2</v>
       </c>
       <c r="V14">
-        <v>98.21000764895615</v>
+        <v>9.8210007648956155E-2</v>
       </c>
       <c r="W14">
-        <v>98.466371843373452</v>
+        <v>9.8466371843373451E-2</v>
       </c>
       <c r="X14">
-        <v>98.722736037790753</v>
+        <v>9.8722736037790748E-2</v>
       </c>
       <c r="Y14">
-        <v>99.179226945748042</v>
+        <v>9.9179226945748045E-2</v>
       </c>
       <c r="Z14">
-        <v>99.379353659287915</v>
+        <v>9.937935365928792E-2</v>
       </c>
       <c r="AA14">
-        <v>99.579480372827845</v>
+        <v>9.957948037282785E-2</v>
       </c>
       <c r="AB14">
-        <v>99.779607086367719</v>
+        <v>9.9779607086367725E-2</v>
       </c>
       <c r="AC14">
-        <v>99.979733799907649</v>
+        <v>9.9979733799907655E-2</v>
       </c>
       <c r="AD14">
-        <v>100.17986051344752</v>
+        <v>0.10017986051344752</v>
       </c>
       <c r="AE14">
-        <v>100.37998722698745</v>
+        <v>0.10037998722698745</v>
       </c>
       <c r="AF14">
-        <v>100.58011394052733</v>
+        <v>0.10058011394052732</v>
       </c>
       <c r="AG14">
-        <v>100.78024065406726</v>
+        <v>0.10078024065406725</v>
       </c>
       <c r="AH14">
-        <v>101.14454491017125</v>
+        <v>0.10114454491017125</v>
       </c>
       <c r="AI14">
-        <v>101.30872245273531</v>
+        <v>0.10130872245273531</v>
       </c>
       <c r="AJ14">
-        <v>101.47289999529943</v>
+        <v>0.10147289999529943</v>
       </c>
       <c r="AK14">
-        <v>101.63707753786355</v>
+        <v>0.10163707753786355</v>
       </c>
       <c r="AL14">
-        <v>101.80125508042761</v>
+        <v>0.1018012550804276</v>
       </c>
       <c r="AM14">
-        <v>101.96543262299173</v>
+        <v>0.10196543262299172</v>
       </c>
       <c r="AN14">
-        <v>102.12961016555579</v>
+        <v>0.10212961016555579</v>
       </c>
       <c r="AO14">
-        <v>102.29378770811991</v>
+        <v>0.10229378770811991</v>
       </c>
       <c r="AP14">
-        <v>102.45796525068403</v>
+        <v>0.10245796525068403</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.3">
@@ -2311,124 +2311,124 @@
         <v>48</v>
       </c>
       <c r="C15">
-        <v>23.764720521784071</v>
+        <v>2.376472052178407E-2</v>
       </c>
       <c r="D15">
-        <v>32.589763652827401</v>
+        <v>3.2589763652827404E-2</v>
       </c>
       <c r="E15">
-        <v>34.15649169643909</v>
+        <v>3.4156491696439091E-2</v>
       </c>
       <c r="F15">
-        <v>36.187215290528783</v>
+        <v>3.6187215290528783E-2</v>
       </c>
       <c r="G15">
-        <v>37.645009742590545</v>
+        <v>3.7645009742590545E-2</v>
       </c>
       <c r="H15">
-        <v>38.783014265300608</v>
+        <v>3.8783014265300605E-2</v>
       </c>
       <c r="I15">
-        <v>39.716596707447266</v>
+        <v>3.9716596707447267E-2</v>
       </c>
       <c r="J15">
-        <v>36.551663903544238</v>
+        <v>3.6551663903544238E-2</v>
       </c>
       <c r="K15">
-        <v>37.280561129575119</v>
+        <v>3.7280561129575118E-2</v>
       </c>
       <c r="L15">
-        <v>37.929510873268072</v>
+        <v>3.7929510873268069E-2</v>
       </c>
       <c r="M15">
-        <v>38.498513134623096</v>
+        <v>3.8498513134623095E-2</v>
       </c>
       <c r="N15">
-        <v>39.016409875837269</v>
+        <v>3.9016409875837266E-2</v>
       </c>
       <c r="O15">
-        <v>39.483201096910619</v>
+        <v>3.9483201096910621E-2</v>
       </c>
       <c r="P15">
-        <v>36.332994735734928</v>
+        <v>3.6332994735734932E-2</v>
       </c>
       <c r="Q15">
-        <v>36.478774180941116</v>
+        <v>3.6478774180941115E-2</v>
       </c>
       <c r="R15">
-        <v>36.624553626147303</v>
+        <v>3.6624553626147305E-2</v>
       </c>
       <c r="S15">
-        <v>36.770333071353491</v>
+        <v>3.6770333071353488E-2</v>
       </c>
       <c r="T15">
-        <v>36.916112516559679</v>
+        <v>3.6916112516559678E-2</v>
       </c>
       <c r="U15">
-        <v>37.061891961765809</v>
+        <v>3.7061891961765812E-2</v>
       </c>
       <c r="V15">
-        <v>37.207671406971997</v>
+        <v>3.7207671406971995E-2</v>
       </c>
       <c r="W15">
-        <v>37.353450852178185</v>
+        <v>3.7353450852178186E-2</v>
       </c>
       <c r="X15">
-        <v>37.499230297384372</v>
+        <v>3.7499230297384376E-2</v>
       </c>
       <c r="Y15">
-        <v>37.758810194861553</v>
+        <v>3.7758810194861554E-2</v>
       </c>
       <c r="Z15">
-        <v>37.872610647132575</v>
+        <v>3.7872610647132578E-2</v>
       </c>
       <c r="AA15">
-        <v>37.986411099403568</v>
+        <v>3.7986411099403566E-2</v>
       </c>
       <c r="AB15">
-        <v>38.10021155167459</v>
+        <v>3.810021155167459E-2</v>
       </c>
       <c r="AC15">
-        <v>38.214012003945584</v>
+        <v>3.8214012003945586E-2</v>
       </c>
       <c r="AD15">
-        <v>38.327812456216606</v>
+        <v>3.8327812456216609E-2</v>
       </c>
       <c r="AE15">
-        <v>38.441612908487599</v>
+        <v>3.8441612908487598E-2</v>
       </c>
       <c r="AF15">
-        <v>38.555413360758592</v>
+        <v>3.8555413360758593E-2</v>
       </c>
       <c r="AG15">
-        <v>38.669213813029614</v>
+        <v>3.8669213813029617E-2</v>
       </c>
       <c r="AH15">
-        <v>38.876372509515278</v>
+        <v>3.8876372509515277E-2</v>
       </c>
       <c r="AI15">
-        <v>38.969730753729948</v>
+        <v>3.8969730753729948E-2</v>
       </c>
       <c r="AJ15">
-        <v>39.063088997944618</v>
+        <v>3.9063088997944619E-2</v>
       </c>
       <c r="AK15">
-        <v>39.156447242159288</v>
+        <v>3.915644724215929E-2</v>
       </c>
       <c r="AL15">
-        <v>39.24980548637393</v>
+        <v>3.9249805486373933E-2</v>
       </c>
       <c r="AM15">
-        <v>39.3431637305886</v>
+        <v>3.9343163730588597E-2</v>
       </c>
       <c r="AN15">
-        <v>39.43652197480327</v>
+        <v>3.9436521974803268E-2</v>
       </c>
       <c r="AO15">
-        <v>39.52988021901794</v>
+        <v>3.9529880219017939E-2</v>
       </c>
       <c r="AP15">
-        <v>39.62323846323261</v>
+        <v>3.962323846323261E-2</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.3">
@@ -2439,124 +2439,124 @@
         <v>49</v>
       </c>
       <c r="C16">
-        <v>4.7558899195380491</v>
+        <v>4.7558899195380491E-3</v>
       </c>
       <c r="D16">
-        <v>5.9720721396812975</v>
+        <v>5.9720721396812971E-3</v>
       </c>
       <c r="E16">
-        <v>7.5439444052175855</v>
+        <v>7.5439444052175855E-3</v>
       </c>
       <c r="F16">
-        <v>8.1338680661687803</v>
+        <v>8.1338680661687795E-3</v>
       </c>
       <c r="G16">
-        <v>8.5573562467254831</v>
+        <v>8.5573562467254824E-3</v>
       </c>
       <c r="H16">
-        <v>8.8879456958115277</v>
+        <v>8.8879456958115277E-3</v>
       </c>
       <c r="I16">
-        <v>9.1591506858327278</v>
+        <v>9.159150685832727E-3</v>
       </c>
       <c r="J16">
-        <v>8.2397401113079667</v>
+        <v>8.2397401113079669E-3</v>
       </c>
       <c r="K16">
-        <v>8.451484201586311</v>
+        <v>8.4514842015863106E-3</v>
       </c>
       <c r="L16">
-        <v>8.6400036089969916</v>
+        <v>8.640003608996992E-3</v>
       </c>
       <c r="M16">
-        <v>8.8052983335400228</v>
+        <v>8.8052983335400233E-3</v>
       </c>
       <c r="N16">
-        <v>8.9557469433168251</v>
+        <v>8.9557469433168245E-3</v>
       </c>
       <c r="O16">
-        <v>9.0913494383274269</v>
+        <v>9.0913494383274267E-3</v>
       </c>
       <c r="P16">
-        <v>8.1762168842244591</v>
+        <v>8.1762168842244593E-3</v>
       </c>
       <c r="Q16">
-        <v>8.2185657022801308</v>
+        <v>8.2185657022801305E-3</v>
       </c>
       <c r="R16">
-        <v>8.2609145203358025</v>
+        <v>8.2609145203358034E-3</v>
       </c>
       <c r="S16">
-        <v>8.30326333839146</v>
+        <v>8.3032633383914606E-3</v>
       </c>
       <c r="T16">
-        <v>8.3456121564471317</v>
+        <v>8.3456121564471318E-3</v>
       </c>
       <c r="U16">
-        <v>8.3879609745028034</v>
+        <v>8.387960974502803E-3</v>
       </c>
       <c r="V16">
-        <v>8.4303097925584751</v>
+        <v>8.4303097925584759E-3</v>
       </c>
       <c r="W16">
-        <v>8.4726586106141468</v>
+        <v>8.472658610614147E-3</v>
       </c>
       <c r="X16">
-        <v>8.5150074286698185</v>
+        <v>8.5150074286698182E-3</v>
       </c>
       <c r="Y16">
-        <v>8.5904151916340936</v>
+        <v>8.5904151916340928E-3</v>
       </c>
       <c r="Z16">
-        <v>8.623474136542697</v>
+        <v>8.6234741365426963E-3</v>
       </c>
       <c r="AA16">
-        <v>8.6565330814513004</v>
+        <v>8.6565330814512998E-3</v>
       </c>
       <c r="AB16">
-        <v>8.6895920263599038</v>
+        <v>8.6895920263599033E-3</v>
       </c>
       <c r="AC16">
-        <v>8.7226509712685072</v>
+        <v>8.7226509712685068E-3</v>
       </c>
       <c r="AD16">
-        <v>8.7557099161771106</v>
+        <v>8.7557099161771103E-3</v>
       </c>
       <c r="AE16">
-        <v>8.788768861085714</v>
+        <v>8.7887688610857138E-3</v>
       </c>
       <c r="AF16">
-        <v>8.8218278059943174</v>
+        <v>8.8218278059943173E-3</v>
       </c>
       <c r="AG16">
-        <v>8.8548867509029208</v>
+        <v>8.8548867509029208E-3</v>
       </c>
       <c r="AH16">
-        <v>8.9150661948136474</v>
+        <v>8.9150661948136471E-3</v>
       </c>
       <c r="AI16">
-        <v>8.9421866938157706</v>
+        <v>8.94218669381577E-3</v>
       </c>
       <c r="AJ16">
-        <v>8.9693071928178867</v>
+        <v>8.9693071928178859E-3</v>
       </c>
       <c r="AK16">
-        <v>8.9964276918200099</v>
+        <v>8.9964276918200105E-3</v>
       </c>
       <c r="AL16">
-        <v>9.023548190822126</v>
+        <v>9.0235481908221265E-3</v>
       </c>
       <c r="AM16">
-        <v>9.0506686898242492</v>
+        <v>9.0506686898242494E-3</v>
       </c>
       <c r="AN16">
-        <v>9.0777891888263653</v>
+        <v>9.0777891888263653E-3</v>
       </c>
       <c r="AO16">
-        <v>9.1049096878284885</v>
+        <v>9.1049096878284882E-3</v>
       </c>
       <c r="AP16">
-        <v>9.1320301868306117</v>
+        <v>9.1320301868306111E-3</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.3">
@@ -2567,124 +2567,124 @@
         <v>50</v>
       </c>
       <c r="C17">
-        <v>0.37415323093336067</v>
+        <v>3.7415323093336066E-4</v>
       </c>
       <c r="D17">
-        <v>0.42167116846341191</v>
+        <v>4.2167116846341193E-4</v>
       </c>
       <c r="E17">
-        <v>0.23035408713966038</v>
+        <v>2.3035408713966037E-4</v>
       </c>
       <c r="F17">
-        <v>0.23969769008512695</v>
+        <v>2.3969769008512696E-4</v>
       </c>
       <c r="G17">
-        <v>0.2464051772959972</v>
+        <v>2.4640517729599722E-4</v>
       </c>
       <c r="H17">
-        <v>0.25164127266677783</v>
+        <v>2.5164127266677781E-4</v>
       </c>
       <c r="I17">
-        <v>0.25593679751401222</v>
+        <v>2.559367975140122E-4</v>
       </c>
       <c r="J17">
-        <v>0.24137456188784467</v>
+        <v>2.4137456188784467E-4</v>
       </c>
       <c r="K17">
-        <v>0.24472830549327962</v>
+        <v>2.4472830549327965E-4</v>
       </c>
       <c r="L17">
-        <v>0.24771420113869236</v>
+        <v>2.4771420113869235E-4</v>
       </c>
       <c r="M17">
-        <v>0.25033224882408267</v>
+        <v>2.5033224882408268E-4</v>
       </c>
       <c r="N17">
-        <v>0.25271515387858645</v>
+        <v>2.5271515387858645E-4</v>
       </c>
       <c r="O17">
-        <v>0.25486291630220359</v>
+        <v>2.5486291630220361E-4</v>
       </c>
       <c r="P17">
-        <v>0.24036843880621395</v>
+        <v>2.4036843880621394E-4</v>
       </c>
       <c r="Q17">
-        <v>0.24103918752730102</v>
+        <v>2.4103918752730103E-4</v>
       </c>
       <c r="R17">
-        <v>0.2417099362483881</v>
+        <v>2.4170993624838812E-4</v>
       </c>
       <c r="S17">
-        <v>0.24238068496947518</v>
+        <v>2.4238068496947518E-4</v>
       </c>
       <c r="T17">
-        <v>0.24305143369056204</v>
+        <v>2.4305143369056205E-4</v>
       </c>
       <c r="U17">
-        <v>0.24372218241164911</v>
+        <v>2.4372218241164911E-4</v>
       </c>
       <c r="V17">
-        <v>0.24439293113273619</v>
+        <v>2.443929311327362E-4</v>
       </c>
       <c r="W17">
-        <v>0.24506367985382327</v>
+        <v>2.4506367985382326E-4</v>
       </c>
       <c r="X17">
-        <v>0.24573442857491035</v>
+        <v>2.4573442857491037E-4</v>
       </c>
       <c r="Y17">
-        <v>0.24692878683307518</v>
+        <v>2.4692878683307519E-4</v>
       </c>
       <c r="Z17">
-        <v>0.24745239637015337</v>
+        <v>2.4745239637015339E-4</v>
       </c>
       <c r="AA17">
-        <v>0.24797600590723134</v>
+        <v>2.4797600590723137E-4</v>
       </c>
       <c r="AB17">
-        <v>0.24849961544430932</v>
+        <v>2.4849961544430929E-4</v>
       </c>
       <c r="AC17">
-        <v>0.24902322498138751</v>
+        <v>2.4902322498138749E-4</v>
       </c>
       <c r="AD17">
-        <v>0.24954683451846549</v>
+        <v>2.4954683451846547E-4</v>
       </c>
       <c r="AE17">
-        <v>0.25007044405554368</v>
+        <v>2.5007044405554366E-4</v>
       </c>
       <c r="AF17">
-        <v>0.25059405359262166</v>
+        <v>2.5059405359262164E-4</v>
       </c>
       <c r="AG17">
-        <v>0.25111766312969963</v>
+        <v>2.5111766312969962E-4</v>
       </c>
       <c r="AH17">
-        <v>0.25207082515150125</v>
+        <v>2.5207082515150124E-4</v>
       </c>
       <c r="AI17">
-        <v>0.25250037763622468</v>
+        <v>2.5250037763622466E-4</v>
       </c>
       <c r="AJ17">
-        <v>0.25292993012094811</v>
+        <v>2.5292993012094813E-4</v>
       </c>
       <c r="AK17">
-        <v>0.25335948260567165</v>
+        <v>2.5335948260567166E-4</v>
       </c>
       <c r="AL17">
-        <v>0.25378903509039508</v>
+        <v>2.5378903509039509E-4</v>
       </c>
       <c r="AM17">
-        <v>0.2542185875751185</v>
+        <v>2.5421858757511851E-4</v>
       </c>
       <c r="AN17">
-        <v>0.25464814005984193</v>
+        <v>2.5464814005984193E-4</v>
       </c>
       <c r="AO17">
-        <v>0.25507769254456536</v>
+        <v>2.5507769254456535E-4</v>
       </c>
       <c r="AP17">
-        <v>0.25550724502928879</v>
+        <v>2.5550724502928877E-4</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.3">
@@ -2823,124 +2823,124 @@
         <v>44</v>
       </c>
       <c r="C19">
-        <v>58.315535205746222</v>
+        <v>5.831553520574622E-2</v>
       </c>
       <c r="D19">
-        <v>51.550700592796964</v>
+        <v>5.1550700592796962E-2</v>
       </c>
       <c r="E19">
-        <v>39.983213154782341</v>
+        <v>3.9983213154782343E-2</v>
       </c>
       <c r="F19">
-        <v>36.613476395680351</v>
+        <v>3.6613476395680349E-2</v>
       </c>
       <c r="G19">
-        <v>34.19444528449187</v>
+        <v>3.4194445284491871E-2</v>
       </c>
       <c r="H19">
-        <v>32.306066342443181</v>
+        <v>3.2306066342443179E-2</v>
       </c>
       <c r="I19">
-        <v>30.756900773032438</v>
+        <v>3.0756900773032437E-2</v>
       </c>
       <c r="J19">
-        <v>36.008718617883233</v>
+        <v>3.6008718617883233E-2</v>
       </c>
       <c r="K19">
-        <v>34.799203062288996</v>
+        <v>3.4799203062288994E-2</v>
       </c>
       <c r="L19">
-        <v>33.722350548979705</v>
+        <v>3.3722350548979707E-2</v>
       </c>
       <c r="M19">
-        <v>32.77816107795536</v>
+        <v>3.2778161077955358E-2</v>
       </c>
       <c r="N19">
-        <v>31.918774950090551</v>
+        <v>3.1918774950090552E-2</v>
       </c>
       <c r="O19">
-        <v>31.144192165385164</v>
+        <v>3.1144192165385165E-2</v>
       </c>
       <c r="P19">
-        <v>36.371573284561521</v>
+        <v>3.6371573284561518E-2</v>
       </c>
       <c r="Q19">
-        <v>36.129670173442662</v>
+        <v>3.6129670173442659E-2</v>
       </c>
       <c r="R19">
-        <v>35.887767062323803</v>
+        <v>3.58877670623238E-2</v>
       </c>
       <c r="S19">
-        <v>35.645863951205001</v>
+        <v>3.5645863951205004E-2</v>
       </c>
       <c r="T19">
-        <v>35.403960840086143</v>
+        <v>3.5403960840086145E-2</v>
       </c>
       <c r="U19">
-        <v>35.162057728967284</v>
+        <v>3.5162057728967286E-2</v>
       </c>
       <c r="V19">
-        <v>34.920154617848425</v>
+        <v>3.4920154617848427E-2</v>
       </c>
       <c r="W19">
-        <v>34.678251506729566</v>
+        <v>3.4678251506729568E-2</v>
       </c>
       <c r="X19">
-        <v>34.436348395610707</v>
+        <v>3.4436348395610709E-2</v>
       </c>
       <c r="Y19">
-        <v>34.005607390287025</v>
+        <v>3.4005607390287025E-2</v>
       </c>
       <c r="Z19">
-        <v>33.816769496082145</v>
+        <v>3.3816769496082144E-2</v>
       </c>
       <c r="AA19">
-        <v>33.627931601877265</v>
+        <v>3.3627931601877263E-2</v>
       </c>
       <c r="AB19">
-        <v>33.439093707672384</v>
+        <v>3.3439093707672382E-2</v>
       </c>
       <c r="AC19">
-        <v>33.250255813467504</v>
+        <v>3.3250255813467501E-2</v>
       </c>
       <c r="AD19">
-        <v>33.061417919262681</v>
+        <v>3.3061417919262683E-2</v>
       </c>
       <c r="AE19">
-        <v>32.8725800250578</v>
+        <v>3.2872580025057802E-2</v>
       </c>
       <c r="AF19">
-        <v>32.68374213085292</v>
+        <v>3.2683742130852921E-2</v>
       </c>
       <c r="AG19">
-        <v>32.49490423664804</v>
+        <v>3.249490423664804E-2</v>
       </c>
       <c r="AH19">
-        <v>32.151149785502128</v>
+        <v>3.2151149785502126E-2</v>
       </c>
       <c r="AI19">
-        <v>31.996233228561039</v>
+        <v>3.1996233228561037E-2</v>
       </c>
       <c r="AJ19">
-        <v>31.841316671620007</v>
+        <v>3.1841316671620004E-2</v>
       </c>
       <c r="AK19">
-        <v>31.686400114678918</v>
+        <v>3.1686400114678916E-2</v>
       </c>
       <c r="AL19">
-        <v>31.531483557737829</v>
+        <v>3.1531483557737827E-2</v>
       </c>
       <c r="AM19">
-        <v>31.37656700079674</v>
+        <v>3.1376567000796739E-2</v>
       </c>
       <c r="AN19">
-        <v>31.221650443855708</v>
+        <v>3.1221650443855709E-2</v>
       </c>
       <c r="AO19">
-        <v>31.066733886914619</v>
+        <v>3.1066733886914621E-2</v>
       </c>
       <c r="AP19">
-        <v>30.91181732997353</v>
+        <v>3.0911817329973529E-2</v>
       </c>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.3">
@@ -2951,124 +2951,124 @@
         <v>45</v>
       </c>
       <c r="C20">
-        <v>131.24907963131727</v>
+        <v>0.13124907963131727</v>
       </c>
       <c r="D20">
-        <v>132.03344457050233</v>
+        <v>0.13203344457050231</v>
       </c>
       <c r="E20">
-        <v>106.92170083941103</v>
+        <v>0.10692170083941104</v>
       </c>
       <c r="F20">
-        <v>105.79013775559879</v>
+        <v>0.1057901377555988</v>
       </c>
       <c r="G20">
-        <v>104.97782317446109</v>
+        <v>0.1049778231744611</v>
       </c>
       <c r="H20">
-        <v>104.34370245470487</v>
+        <v>0.10434370245470487</v>
       </c>
       <c r="I20">
-        <v>103.82349013713339</v>
+        <v>0.10382349013713339</v>
       </c>
       <c r="J20">
-        <v>105.58705911031439</v>
+        <v>0.10558705911031438</v>
       </c>
       <c r="K20">
-        <v>105.18090181974554</v>
+        <v>0.10518090181974554</v>
       </c>
       <c r="L20">
-        <v>104.81929299452207</v>
+        <v>0.10481929299452207</v>
       </c>
       <c r="M20">
-        <v>104.50223263464395</v>
+        <v>0.10450223263464395</v>
       </c>
       <c r="N20">
-        <v>104.21364937531202</v>
+        <v>0.10421364937531202</v>
       </c>
       <c r="O20">
-        <v>103.95354321652628</v>
+        <v>0.10395354321652628</v>
       </c>
       <c r="P20">
-        <v>105.70890629748504</v>
+        <v>0.10570890629748504</v>
       </c>
       <c r="Q20">
-        <v>105.62767483937125</v>
+        <v>0.10562767483937126</v>
       </c>
       <c r="R20">
-        <v>105.54644338125749</v>
+        <v>0.10554644338125749</v>
       </c>
       <c r="S20">
-        <v>105.46521192314373</v>
+        <v>0.10546521192314373</v>
       </c>
       <c r="T20">
-        <v>105.38398046502996</v>
+        <v>0.10538398046502996</v>
       </c>
       <c r="U20">
-        <v>105.3027490069162</v>
+        <v>0.1053027490069162</v>
       </c>
       <c r="V20">
-        <v>105.22151754880241</v>
+        <v>0.10522151754880241</v>
       </c>
       <c r="W20">
-        <v>105.14028609068865</v>
+        <v>0.10514028609068865</v>
       </c>
       <c r="X20">
-        <v>105.05905463257488</v>
+        <v>0.10505905463257488</v>
       </c>
       <c r="Y20">
-        <v>104.9144111024855</v>
+        <v>0.10491441110248551</v>
       </c>
       <c r="Z20">
-        <v>104.85099903050988</v>
+        <v>0.10485099903050989</v>
       </c>
       <c r="AA20">
-        <v>104.78758695853426</v>
+        <v>0.10478758695853427</v>
       </c>
       <c r="AB20">
-        <v>104.72417488655861</v>
+        <v>0.10472417488655862</v>
       </c>
       <c r="AC20">
-        <v>104.66076281458299</v>
+        <v>0.10466076281458299</v>
       </c>
       <c r="AD20">
-        <v>104.59735074260738</v>
+        <v>0.10459735074260737</v>
       </c>
       <c r="AE20">
-        <v>104.53393867063176</v>
+        <v>0.10453393867063175</v>
       </c>
       <c r="AF20">
-        <v>104.47052659865614</v>
+        <v>0.10447052659865613</v>
       </c>
       <c r="AG20">
-        <v>104.40711452668052</v>
+        <v>0.10440711452668051</v>
       </c>
       <c r="AH20">
-        <v>104.29168122294774</v>
+        <v>0.10429168122294774</v>
       </c>
       <c r="AI20">
-        <v>104.23965999119059</v>
+        <v>0.10423965999119059</v>
       </c>
       <c r="AJ20">
-        <v>104.18763875943345</v>
+        <v>0.10418763875943346</v>
       </c>
       <c r="AK20">
-        <v>104.1356175276763</v>
+        <v>0.10413561752767631</v>
       </c>
       <c r="AL20">
-        <v>104.08359629591915</v>
+        <v>0.10408359629591915</v>
       </c>
       <c r="AM20">
-        <v>104.031575064162</v>
+        <v>0.104031575064162</v>
       </c>
       <c r="AN20">
-        <v>103.97955383240486</v>
+        <v>0.10397955383240486</v>
       </c>
       <c r="AO20">
-        <v>103.92753260064771</v>
+        <v>0.10392753260064772</v>
       </c>
       <c r="AP20">
-        <v>103.87551136889056</v>
+        <v>0.10387551136889056</v>
       </c>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.3">
@@ -3079,124 +3079,124 @@
         <v>46</v>
       </c>
       <c r="C21">
-        <v>119.86397960174075</v>
+        <v>0.11986397960174075</v>
       </c>
       <c r="D21">
-        <v>123.06205831133529</v>
+        <v>0.12306205831133529</v>
       </c>
       <c r="E21">
-        <v>116.32223734686301</v>
+        <v>0.11632223734686301</v>
       </c>
       <c r="F21">
-        <v>117.46078452353193</v>
+        <v>0.11746078452353192</v>
       </c>
       <c r="G21">
-        <v>118.27811277164467</v>
+        <v>0.11827811277164467</v>
       </c>
       <c r="H21">
-        <v>118.91614733239877</v>
+        <v>0.11891614733239876</v>
       </c>
       <c r="I21">
-        <v>119.43957043970265</v>
+        <v>0.11943957043970264</v>
       </c>
       <c r="J21">
-        <v>117.66511658556011</v>
+        <v>0.11766511658556011</v>
       </c>
       <c r="K21">
-        <v>118.07378070961649</v>
+        <v>0.11807378070961648</v>
       </c>
       <c r="L21">
-        <v>118.43762141183319</v>
+        <v>0.11843762141183319</v>
       </c>
       <c r="M21">
-        <v>118.75663869221023</v>
+        <v>0.11875663869221023</v>
       </c>
       <c r="N21">
-        <v>119.04700310922473</v>
+        <v>0.11904700310922474</v>
       </c>
       <c r="O21">
-        <v>119.30871466287668</v>
+        <v>0.11930871466287668</v>
       </c>
       <c r="P21">
-        <v>117.54251734834322</v>
+        <v>0.11754251734834323</v>
       </c>
       <c r="Q21">
-        <v>117.62425017315449</v>
+        <v>0.11762425017315449</v>
       </c>
       <c r="R21">
-        <v>117.70598299796576</v>
+        <v>0.11770598299796577</v>
       </c>
       <c r="S21">
-        <v>117.78771582277703</v>
+        <v>0.11778771582277703</v>
       </c>
       <c r="T21">
-        <v>117.8694486475883</v>
+        <v>0.1178694486475883</v>
       </c>
       <c r="U21">
-        <v>117.9511814723996</v>
+        <v>0.11795118147239959</v>
       </c>
       <c r="V21">
-        <v>118.03291429721087</v>
+        <v>0.11803291429721087</v>
       </c>
       <c r="W21">
-        <v>118.11464712202213</v>
+        <v>0.11811464712202213</v>
       </c>
       <c r="X21">
-        <v>118.1963799468334</v>
+        <v>0.11819637994683341</v>
       </c>
       <c r="Y21">
-        <v>118.34191622772008</v>
+        <v>0.11834191622772007</v>
       </c>
       <c r="Z21">
-        <v>118.4057196837955</v>
+        <v>0.1184057196837955</v>
       </c>
       <c r="AA21">
-        <v>118.46952313987089</v>
+        <v>0.11846952313987089</v>
       </c>
       <c r="AB21">
-        <v>118.53332659594631</v>
+        <v>0.1185333265959463</v>
       </c>
       <c r="AC21">
-        <v>118.59713005202173</v>
+        <v>0.11859713005202173</v>
       </c>
       <c r="AD21">
-        <v>118.66093350809712</v>
+        <v>0.11866093350809712</v>
       </c>
       <c r="AE21">
-        <v>118.72473696417254</v>
+        <v>0.11872473696417253</v>
       </c>
       <c r="AF21">
-        <v>118.78854042024795</v>
+        <v>0.11878854042024796</v>
       </c>
       <c r="AG21">
-        <v>118.85234387632335</v>
+        <v>0.11885234387632335</v>
       </c>
       <c r="AH21">
-        <v>118.96848964312915</v>
+        <v>0.11896848964312914</v>
       </c>
       <c r="AI21">
-        <v>119.02083195385954</v>
+        <v>0.11902083195385954</v>
       </c>
       <c r="AJ21">
-        <v>119.07317426458994</v>
+        <v>0.11907317426458994</v>
       </c>
       <c r="AK21">
-        <v>119.12551657532032</v>
+        <v>0.11912551657532032</v>
       </c>
       <c r="AL21">
-        <v>119.1778588860507</v>
+        <v>0.1191778588860507</v>
       </c>
       <c r="AM21">
-        <v>119.2302011967811</v>
+        <v>0.1192302011967811</v>
       </c>
       <c r="AN21">
-        <v>119.28254350751149</v>
+        <v>0.1192825435075115</v>
       </c>
       <c r="AO21">
-        <v>119.33488581824187</v>
+        <v>0.11933488581824188</v>
       </c>
       <c r="AP21">
-        <v>119.38722812897225</v>
+        <v>0.11938722812897225</v>
       </c>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.3">
@@ -3207,124 +3207,124 @@
         <v>47</v>
       </c>
       <c r="C22">
-        <v>69.57842794473197</v>
+        <v>6.9578427944731971E-2</v>
       </c>
       <c r="D22">
-        <v>84.816592116349952</v>
+        <v>8.4816592116349954E-2</v>
       </c>
       <c r="E22">
-        <v>91.963990749917414</v>
+        <v>9.1963990749917415E-2</v>
       </c>
       <c r="F22">
-        <v>95.62608635118913</v>
+        <v>9.5626086351189132E-2</v>
       </c>
       <c r="G22">
-        <v>98.254992946843672</v>
+        <v>9.8254992946843672E-2</v>
       </c>
       <c r="H22">
-        <v>100.30720791542581</v>
+        <v>0.1003072079154258</v>
       </c>
       <c r="I22">
-        <v>101.99077931074528</v>
+        <v>0.10199077931074528</v>
       </c>
       <c r="J22">
-        <v>96.283313000102794</v>
+        <v>9.6283313000102788E-2</v>
       </c>
       <c r="K22">
-        <v>97.597766297929979</v>
+        <v>9.7597766297929975E-2</v>
       </c>
       <c r="L22">
-        <v>98.768046688989216</v>
+        <v>9.8768046688989211E-2</v>
       </c>
       <c r="M22">
-        <v>99.794154173280276</v>
+        <v>9.9794154173280275E-2</v>
       </c>
       <c r="N22">
-        <v>100.72810076425569</v>
+        <v>0.10072810076425569</v>
       </c>
       <c r="O22">
-        <v>101.56988646191539</v>
+        <v>0.10156988646191539</v>
       </c>
       <c r="P22">
-        <v>95.888977010754616</v>
+        <v>9.588897701075462E-2</v>
       </c>
       <c r="Q22">
-        <v>96.15186767032003</v>
+        <v>9.6151867670320024E-2</v>
       </c>
       <c r="R22">
-        <v>96.414758329885444</v>
+        <v>9.6414758329885442E-2</v>
       </c>
       <c r="S22">
-        <v>96.677648989450972</v>
+        <v>9.6677648989450971E-2</v>
       </c>
       <c r="T22">
-        <v>96.940539649016387</v>
+        <v>9.6940539649016388E-2</v>
       </c>
       <c r="U22">
-        <v>97.203430308581801</v>
+        <v>9.7203430308581806E-2</v>
       </c>
       <c r="V22">
-        <v>97.466320968147329</v>
+        <v>9.7466320968147335E-2</v>
       </c>
       <c r="W22">
-        <v>97.729211627712743</v>
+        <v>9.7729211627712739E-2</v>
       </c>
       <c r="X22">
-        <v>97.992102287278158</v>
+        <v>9.7992102287278157E-2</v>
       </c>
       <c r="Y22">
-        <v>98.460214443701886</v>
+        <v>9.8460214443701885E-2</v>
       </c>
       <c r="Z22">
-        <v>98.665435940560087</v>
+        <v>9.8665435940560084E-2</v>
       </c>
       <c r="AA22">
-        <v>98.870657437418345</v>
+        <v>9.8870657437418338E-2</v>
       </c>
       <c r="AB22">
-        <v>99.075878934276545</v>
+        <v>9.9075878934276551E-2</v>
       </c>
       <c r="AC22">
-        <v>99.281100431134746</v>
+        <v>9.928110043113475E-2</v>
       </c>
       <c r="AD22">
-        <v>99.486321927992947</v>
+        <v>9.9486321927992949E-2</v>
       </c>
       <c r="AE22">
-        <v>99.691543424851204</v>
+        <v>9.9691543424851203E-2</v>
       </c>
       <c r="AF22">
-        <v>99.896764921709405</v>
+        <v>9.9896764921709402E-2</v>
       </c>
       <c r="AG22">
-        <v>100.10198641856761</v>
+        <v>0.1001019864185676</v>
       </c>
       <c r="AH22">
-        <v>100.47556505495774</v>
+        <v>0.10047556505495774</v>
       </c>
       <c r="AI22">
-        <v>100.6439221944897</v>
+        <v>0.1006439221944897</v>
       </c>
       <c r="AJ22">
-        <v>100.81227933402161</v>
+        <v>0.10081227933402161</v>
       </c>
       <c r="AK22">
-        <v>100.98063647355357</v>
+        <v>0.10098063647355357</v>
       </c>
       <c r="AL22">
-        <v>101.14899361308554</v>
+        <v>0.10114899361308553</v>
       </c>
       <c r="AM22">
-        <v>101.3173507526175</v>
+        <v>0.1013173507526175</v>
       </c>
       <c r="AN22">
-        <v>101.48570789214941</v>
+        <v>0.1014857078921494</v>
       </c>
       <c r="AO22">
-        <v>101.65406503168137</v>
+        <v>0.10165406503168137</v>
       </c>
       <c r="AP22">
-        <v>101.82242217121333</v>
+        <v>0.10182242217121333</v>
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.3">
@@ -3335,124 +3335,124 @@
         <v>48</v>
       </c>
       <c r="C23">
-        <v>25.593355633265663</v>
+        <v>2.5593355633265664E-2</v>
       </c>
       <c r="D23">
-        <v>32.347561630441461</v>
+        <v>3.234756163044146E-2</v>
       </c>
       <c r="E23">
-        <v>36.057594808355304</v>
+        <v>3.6057594808355305E-2</v>
       </c>
       <c r="F23">
-        <v>38.0554377437401</v>
+        <v>3.8055437743740102E-2</v>
       </c>
       <c r="G23">
-        <v>39.489628175057916</v>
+        <v>3.9489628175057918E-2</v>
       </c>
       <c r="H23">
-        <v>40.609206586787266</v>
+        <v>4.0609206586787266E-2</v>
       </c>
       <c r="I23">
-        <v>41.527672837965113</v>
+        <v>4.1527672837965116E-2</v>
       </c>
       <c r="J23">
-        <v>38.413985351569551</v>
+        <v>3.8413985351569549E-2</v>
       </c>
       <c r="K23">
-        <v>39.131080567228452</v>
+        <v>3.913108056722845E-2</v>
       </c>
       <c r="L23">
-        <v>39.769522777990261</v>
+        <v>3.9769522777990264E-2</v>
       </c>
       <c r="M23">
-        <v>40.32931198385495</v>
+        <v>4.0329311983854949E-2</v>
       </c>
       <c r="N23">
-        <v>40.838823149581714</v>
+        <v>4.0838823149581711E-2</v>
       </c>
       <c r="O23">
-        <v>41.298056275170637</v>
+        <v>4.1298056275170636E-2</v>
       </c>
       <c r="P23">
-        <v>38.198856786871914</v>
+        <v>3.8198856786871911E-2</v>
       </c>
       <c r="Q23">
-        <v>38.342275830003672</v>
+        <v>3.8342275830003672E-2</v>
       </c>
       <c r="R23">
-        <v>38.485694873135429</v>
+        <v>3.8485694873135426E-2</v>
       </c>
       <c r="S23">
-        <v>38.629113916267244</v>
+        <v>3.8629113916267242E-2</v>
       </c>
       <c r="T23">
-        <v>38.772532959399001</v>
+        <v>3.8772532959399003E-2</v>
       </c>
       <c r="U23">
-        <v>38.915952002530815</v>
+        <v>3.8915952002530813E-2</v>
       </c>
       <c r="V23">
-        <v>39.059371045662573</v>
+        <v>3.9059371045662573E-2</v>
       </c>
       <c r="W23">
-        <v>39.202790088794387</v>
+        <v>3.920279008879439E-2</v>
       </c>
       <c r="X23">
-        <v>39.346209131926145</v>
+        <v>3.9346209131926144E-2</v>
       </c>
       <c r="Y23">
-        <v>39.601586016230868</v>
+        <v>3.9601586016230865E-2</v>
       </c>
       <c r="Z23">
-        <v>39.713543857403806</v>
+        <v>3.9713543857403805E-2</v>
       </c>
       <c r="AA23">
-        <v>39.825501698576744</v>
+        <v>3.9825501698576744E-2</v>
       </c>
       <c r="AB23">
-        <v>39.937459539749653</v>
+        <v>3.9937459539749656E-2</v>
       </c>
       <c r="AC23">
-        <v>40.049417380922591</v>
+        <v>4.0049417380922589E-2</v>
       </c>
       <c r="AD23">
-        <v>40.161375222095529</v>
+        <v>4.0161375222095529E-2</v>
       </c>
       <c r="AE23">
-        <v>40.273333063268467</v>
+        <v>4.0273333063268468E-2</v>
       </c>
       <c r="AF23">
-        <v>40.385290904441405</v>
+        <v>4.0385290904441408E-2</v>
       </c>
       <c r="AG23">
-        <v>40.497248745614343</v>
+        <v>4.0497248745614341E-2</v>
       </c>
       <c r="AH23">
-        <v>40.701053211905048</v>
+        <v>4.070105321190505E-2</v>
       </c>
       <c r="AI23">
-        <v>40.792899837022816</v>
+        <v>4.0792899837022813E-2</v>
       </c>
       <c r="AJ23">
-        <v>40.884746462140612</v>
+        <v>4.088474646214061E-2</v>
       </c>
       <c r="AK23">
-        <v>40.976593087258408</v>
+        <v>4.0976593087258407E-2</v>
       </c>
       <c r="AL23">
-        <v>41.068439712376176</v>
+        <v>4.1068439712376177E-2</v>
       </c>
       <c r="AM23">
-        <v>41.160286337493972</v>
+        <v>4.1160286337493975E-2</v>
       </c>
       <c r="AN23">
-        <v>41.252132962611739</v>
+        <v>4.1252132962611737E-2</v>
       </c>
       <c r="AO23">
-        <v>41.343979587729535</v>
+        <v>4.1343979587729535E-2</v>
       </c>
       <c r="AP23">
-        <v>41.435826212847331</v>
+        <v>4.1435826212847332E-2</v>
       </c>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.3">
@@ -3463,124 +3463,124 @@
         <v>49</v>
       </c>
       <c r="C24">
-        <v>3.7194911671029107</v>
+        <v>3.7194911671029106E-3</v>
       </c>
       <c r="D24">
-        <v>6.0085211549412021</v>
+        <v>6.0085211549412024E-3</v>
       </c>
       <c r="E24">
-        <v>7.5889328063241104</v>
+        <v>7.5889328063241104E-3</v>
       </c>
       <c r="F24">
-        <v>8.2144901992017694</v>
+        <v>8.2144901992017693E-3</v>
       </c>
       <c r="G24">
-        <v>8.6635587476922709</v>
+        <v>8.663558747692271E-3</v>
       </c>
       <c r="H24">
-        <v>9.0141171123960664</v>
+        <v>9.0141171123960667E-3</v>
       </c>
       <c r="I24">
-        <v>9.3017039608698511</v>
+        <v>9.3017039608698504E-3</v>
       </c>
       <c r="J24">
-        <v>8.3267573363243912</v>
+        <v>8.3267573363243908E-3</v>
       </c>
       <c r="K24">
-        <v>8.551291610569649</v>
+        <v>8.5512916105696495E-3</v>
       </c>
       <c r="L24">
-        <v>8.7511983388682069</v>
+        <v>8.751198338868206E-3</v>
       </c>
       <c r="M24">
-        <v>8.9264775212201073</v>
+        <v>8.9264775212201074E-3</v>
       </c>
       <c r="N24">
-        <v>9.0860138245145023</v>
+        <v>9.0860138245145022E-3</v>
       </c>
       <c r="O24">
-        <v>9.2298072487513991</v>
+        <v>9.2298072487513993E-3</v>
       </c>
       <c r="P24">
-        <v>8.2593970540508224</v>
+        <v>8.2593970540508228E-3</v>
       </c>
       <c r="Q24">
-        <v>8.3043039088998682</v>
+        <v>8.3043039088998676E-3</v>
       </c>
       <c r="R24">
-        <v>8.3492107637489283</v>
+        <v>8.349210763748928E-3</v>
       </c>
       <c r="S24">
-        <v>8.3941176185979742</v>
+        <v>8.3941176185979745E-3</v>
       </c>
       <c r="T24">
-        <v>8.4390244734470201</v>
+        <v>8.4390244734470193E-3</v>
       </c>
       <c r="U24">
-        <v>8.483931328296066</v>
+        <v>8.4839313282960658E-3</v>
       </c>
       <c r="V24">
-        <v>8.5288381831451261</v>
+        <v>8.5288381831451262E-3</v>
       </c>
       <c r="W24">
-        <v>8.573745037994172</v>
+        <v>8.5737450379941727E-3</v>
       </c>
       <c r="X24">
-        <v>8.6186518928432179</v>
+        <v>8.6186518928432175E-3</v>
       </c>
       <c r="Y24">
-        <v>8.698614584162641</v>
+        <v>8.6986145841626405E-3</v>
       </c>
       <c r="Z24">
-        <v>8.7336704206330182</v>
+        <v>8.7336704206330187E-3</v>
       </c>
       <c r="AA24">
-        <v>8.7687262571034097</v>
+        <v>8.768726257103409E-3</v>
       </c>
       <c r="AB24">
-        <v>8.8037820935737869</v>
+        <v>8.8037820935737872E-3</v>
       </c>
       <c r="AC24">
-        <v>8.8388379300441642</v>
+        <v>8.8388379300441636E-3</v>
       </c>
       <c r="AD24">
-        <v>8.8738937665145414</v>
+        <v>8.8738937665145418E-3</v>
       </c>
       <c r="AE24">
-        <v>8.9089496029849187</v>
+        <v>8.9089496029849183E-3</v>
       </c>
       <c r="AF24">
-        <v>8.9440054394552959</v>
+        <v>8.9440054394552965E-3</v>
       </c>
       <c r="AG24">
-        <v>8.9790612759256874</v>
+        <v>8.9790612759256868E-3</v>
       </c>
       <c r="AH24">
-        <v>9.0428757972434397</v>
+        <v>9.0428757972434402E-3</v>
       </c>
       <c r="AI24">
-        <v>9.0716344820908148</v>
+        <v>9.0716344820908155E-3</v>
       </c>
       <c r="AJ24">
-        <v>9.100393166938197</v>
+        <v>9.1003931669381977E-3</v>
       </c>
       <c r="AK24">
-        <v>9.1291518517855721</v>
+        <v>9.1291518517855729E-3</v>
       </c>
       <c r="AL24">
-        <v>9.1579105366329543</v>
+        <v>9.1579105366329551E-3</v>
       </c>
       <c r="AM24">
-        <v>9.1866692214803294</v>
+        <v>9.1866692214803286E-3</v>
       </c>
       <c r="AN24">
-        <v>9.2154279063277116</v>
+        <v>9.2154279063277108E-3</v>
       </c>
       <c r="AO24">
-        <v>9.2441865911750867</v>
+        <v>9.244186591175086E-3</v>
       </c>
       <c r="AP24">
-        <v>9.2729452760224618</v>
+        <v>9.2729452760224613E-3</v>
       </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.3">
@@ -3591,124 +3591,124 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>0.14067592361504758</v>
+        <v>1.4067592361504758E-4</v>
       </c>
       <c r="D25">
-        <v>3.5134376553640372E-2</v>
+        <v>3.5134376553640373E-5</v>
       </c>
       <c r="E25">
-        <v>0.13967943569507979</v>
+        <v>1.3967943569507979E-4</v>
       </c>
       <c r="F25">
-        <v>0.15148618771071362</v>
+        <v>1.5148618771071361E-4</v>
       </c>
       <c r="G25">
-        <v>0.15996189441710837</v>
+        <v>1.5996189441710838E-4</v>
       </c>
       <c r="H25">
-        <v>0.16657832278353527</v>
+        <v>1.6657832278353527E-4</v>
       </c>
       <c r="I25">
-        <v>0.1720062285864993</v>
+        <v>1.720062285864993E-4</v>
       </c>
       <c r="J25">
-        <v>0.15360511438731206</v>
+        <v>1.5360511438731206E-4</v>
       </c>
       <c r="K25">
-        <v>0.15784296774050954</v>
+        <v>1.5784296774050955E-4</v>
       </c>
       <c r="L25">
-        <v>0.16161600150871513</v>
+        <v>1.6161600150871514E-4</v>
       </c>
       <c r="M25">
-        <v>0.16492421569192861</v>
+        <v>1.6492421569192861E-4</v>
       </c>
       <c r="N25">
-        <v>0.16793529923427619</v>
+        <v>1.6793529923427619E-4</v>
       </c>
       <c r="O25">
-        <v>0.1706492521357581</v>
+        <v>1.7064925213575811E-4</v>
       </c>
       <c r="P25">
-        <v>0.15233375838135288</v>
+        <v>1.5233375838135288E-4</v>
       </c>
       <c r="Q25">
-        <v>0.15318132905199233</v>
+        <v>1.5318132905199234E-4</v>
       </c>
       <c r="R25">
-        <v>0.15402889972263178</v>
+        <v>1.5402889972263178E-4</v>
       </c>
       <c r="S25">
-        <v>0.15487647039327146</v>
+        <v>1.5487647039327145E-4</v>
       </c>
       <c r="T25">
-        <v>0.15572404106391091</v>
+        <v>1.5572404106391091E-4</v>
       </c>
       <c r="U25">
-        <v>0.15657161173455036</v>
+        <v>1.5657161173455037E-4</v>
       </c>
       <c r="V25">
-        <v>0.15741918240518982</v>
+        <v>1.5741918240518981E-4</v>
       </c>
       <c r="W25">
-        <v>0.15826675307582927</v>
+        <v>1.5826675307582927E-4</v>
       </c>
       <c r="X25">
-        <v>0.15911432374646872</v>
+        <v>1.5911432374646873E-4</v>
       </c>
       <c r="Y25">
-        <v>0.16062353725375123</v>
+        <v>1.6062353725375124E-4</v>
       </c>
       <c r="Z25">
-        <v>0.16128518009039383</v>
+        <v>1.6128518009039382E-4</v>
       </c>
       <c r="AA25">
-        <v>0.16194682292703644</v>
+        <v>1.6194682292703644E-4</v>
       </c>
       <c r="AB25">
-        <v>0.16260846576367927</v>
+        <v>1.6260846576367927E-4</v>
       </c>
       <c r="AC25">
-        <v>0.16327010860032187</v>
+        <v>1.6327010860032188E-4</v>
       </c>
       <c r="AD25">
-        <v>0.1639317514369647</v>
+        <v>1.6393175143696471E-4</v>
       </c>
       <c r="AE25">
-        <v>0.16459339427360731</v>
+        <v>1.6459339427360729E-4</v>
       </c>
       <c r="AF25">
-        <v>0.16525503711024991</v>
+        <v>1.6525503711024991E-4</v>
       </c>
       <c r="AG25">
-        <v>0.16591667994689274</v>
+        <v>1.6591667994689274E-4</v>
       </c>
       <c r="AH25">
-        <v>0.16712111336383151</v>
+        <v>1.6712111336383151E-4</v>
       </c>
       <c r="AI25">
-        <v>0.16766390394412789</v>
+        <v>1.6766390394412788E-4</v>
       </c>
       <c r="AJ25">
-        <v>0.16820669452442427</v>
+        <v>1.6820669452442428E-4</v>
       </c>
       <c r="AK25">
-        <v>0.16874948510472088</v>
+        <v>1.6874948510472087E-4</v>
       </c>
       <c r="AL25">
-        <v>0.16929227568501726</v>
+        <v>1.6929227568501725E-4</v>
       </c>
       <c r="AM25">
-        <v>0.16983506626531364</v>
+        <v>1.6983506626531365E-4</v>
       </c>
       <c r="AN25">
-        <v>0.17037785684561002</v>
+        <v>1.7037785684561002E-4</v>
       </c>
       <c r="AO25">
-        <v>0.1709206474259064</v>
+        <v>1.7092064742590639E-4</v>
       </c>
       <c r="AP25">
-        <v>0.17146343800620278</v>
+        <v>1.7146343800620279E-4</v>
       </c>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.3">
@@ -3719,10 +3719,10 @@
         <v>43</v>
       </c>
       <c r="C26">
-        <v>1.0650362214102542</v>
+        <v>1.0650362214102542E-3</v>
       </c>
       <c r="D26">
-        <v>0.49293485616635568</v>
+        <v>4.9293485616635569E-4</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3847,124 +3847,124 @@
         <v>44</v>
       </c>
       <c r="C27">
-        <v>60.239951799710894</v>
+        <v>6.0239951799710895E-2</v>
       </c>
       <c r="D27">
-        <v>46.09050704536218</v>
+        <v>4.6090507045362182E-2</v>
       </c>
       <c r="E27">
-        <v>33.992829637498339</v>
+        <v>3.3992829637498341E-2</v>
       </c>
       <c r="F27">
-        <v>31.572603802664137</v>
+        <v>3.1572603802664134E-2</v>
       </c>
       <c r="G27">
-        <v>29.835197586955381</v>
+        <v>2.9835197586955381E-2</v>
       </c>
       <c r="H27">
-        <v>28.478918498044855</v>
+        <v>2.8478918498044854E-2</v>
       </c>
       <c r="I27">
-        <v>27.366270596574154</v>
+        <v>2.7366270596574153E-2</v>
       </c>
       <c r="J27">
-        <v>31.13825224873699</v>
+        <v>3.1138252248736991E-2</v>
       </c>
       <c r="K27">
-        <v>30.269549140882589</v>
+        <v>3.026954914088259E-2</v>
       </c>
       <c r="L27">
-        <v>29.496127814727799</v>
+        <v>2.94961278147278E-2</v>
       </c>
       <c r="M27">
-        <v>28.817988270272508</v>
+        <v>2.8817988270272508E-2</v>
       </c>
       <c r="N27">
-        <v>28.200756522677182</v>
+        <v>2.8200756522677183E-2</v>
       </c>
       <c r="O27">
-        <v>27.64443257194182</v>
+        <v>2.764443257194182E-2</v>
       </c>
       <c r="P27">
-        <v>31.398863181093304</v>
+        <v>3.1398863181093306E-2</v>
       </c>
       <c r="Q27">
-        <v>31.22512255952239</v>
+        <v>3.1225122559522391E-2</v>
       </c>
       <c r="R27">
-        <v>31.051381937951533</v>
+        <v>3.1051381937951532E-2</v>
       </c>
       <c r="S27">
-        <v>30.877641316380675</v>
+        <v>3.0877641316380676E-2</v>
       </c>
       <c r="T27">
-        <v>30.703900694809761</v>
+        <v>3.0703900694809761E-2</v>
       </c>
       <c r="U27">
-        <v>30.530160073238903</v>
+        <v>3.0530160073238902E-2</v>
       </c>
       <c r="V27">
-        <v>30.356419451668046</v>
+        <v>3.0356419451668046E-2</v>
       </c>
       <c r="W27">
-        <v>30.182678830097132</v>
+        <v>3.0182678830097131E-2</v>
       </c>
       <c r="X27">
-        <v>30.008938208526274</v>
+        <v>3.0008938208526275E-2</v>
       </c>
       <c r="Y27">
-        <v>29.699569678064336</v>
+        <v>2.9699569678064336E-2</v>
       </c>
       <c r="Z27">
-        <v>29.563941769173312</v>
+        <v>2.9563941769173312E-2</v>
       </c>
       <c r="AA27">
-        <v>29.428313860282287</v>
+        <v>2.9428313860282287E-2</v>
       </c>
       <c r="AB27">
-        <v>29.292685951391206</v>
+        <v>2.9292685951391208E-2</v>
       </c>
       <c r="AC27">
-        <v>29.157058042500125</v>
+        <v>2.9157058042500125E-2</v>
       </c>
       <c r="AD27">
-        <v>29.021430133609101</v>
+        <v>2.90214301336091E-2</v>
       </c>
       <c r="AE27">
-        <v>28.885802224718077</v>
+        <v>2.8885802224718076E-2</v>
       </c>
       <c r="AF27">
-        <v>28.750174315826996</v>
+        <v>2.8750174315826996E-2</v>
       </c>
       <c r="AG27">
-        <v>28.614546406935915</v>
+        <v>2.8614546406935917E-2</v>
       </c>
       <c r="AH27">
-        <v>28.367653707897773</v>
+        <v>2.8367653707897775E-2</v>
       </c>
       <c r="AI27">
-        <v>28.256388917750712</v>
+        <v>2.8256388917750713E-2</v>
       </c>
       <c r="AJ27">
-        <v>28.145124127603651</v>
+        <v>2.814512412760365E-2</v>
       </c>
       <c r="AK27">
-        <v>28.033859337456562</v>
+        <v>2.803385933745656E-2</v>
       </c>
       <c r="AL27">
-        <v>27.922594547309501</v>
+        <v>2.7922594547309502E-2</v>
       </c>
       <c r="AM27">
-        <v>27.81132975716244</v>
+        <v>2.781132975716244E-2</v>
       </c>
       <c r="AN27">
-        <v>27.700064967015351</v>
+        <v>2.770006496701535E-2</v>
       </c>
       <c r="AO27">
-        <v>27.58880017686829</v>
+        <v>2.7588800176868291E-2</v>
       </c>
       <c r="AP27">
-        <v>27.477535386721229</v>
+        <v>2.7477535386721229E-2</v>
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.3">
@@ -3975,124 +3975,124 @@
         <v>45</v>
       </c>
       <c r="C28">
-        <v>111.50808732417353</v>
+        <v>0.11150808732417353</v>
       </c>
       <c r="D28">
-        <v>109.94683837020784</v>
+        <v>0.10994683837020784</v>
       </c>
       <c r="E28">
-        <v>96.59214239201215</v>
+        <v>9.6592142392012151E-2</v>
       </c>
       <c r="F28">
-        <v>97.710179638711793</v>
+        <v>9.7710179638711786E-2</v>
       </c>
       <c r="G28">
-        <v>98.512784434451021</v>
+        <v>9.8512784434451023E-2</v>
       </c>
       <c r="H28">
-        <v>99.139325361540045</v>
+        <v>9.9139325361540048E-2</v>
       </c>
       <c r="I28">
-        <v>99.653319460107994</v>
+        <v>9.9653319460107997E-2</v>
       </c>
       <c r="J28">
-        <v>97.910830837646586</v>
+        <v>9.7910830837646581E-2</v>
       </c>
       <c r="K28">
-        <v>98.312133235516228</v>
+        <v>9.8312133235516228E-2</v>
       </c>
       <c r="L28">
-        <v>98.669419666223277</v>
+        <v>9.8669419666223279E-2</v>
       </c>
       <c r="M28">
-        <v>98.982690129767789</v>
+        <v>9.8982690129767792E-2</v>
       </c>
       <c r="N28">
-        <v>99.267823886182029</v>
+        <v>9.9267823886182036E-2</v>
       </c>
       <c r="O28">
-        <v>99.524820935465996</v>
+        <v>9.9524820935465996E-2</v>
       </c>
       <c r="P28">
-        <v>97.790440118285716</v>
+        <v>9.7790440118285721E-2</v>
       </c>
       <c r="Q28">
-        <v>97.870700597859638</v>
+        <v>9.7870700597859642E-2</v>
       </c>
       <c r="R28">
-        <v>97.950961077433561</v>
+        <v>9.7950961077433563E-2</v>
       </c>
       <c r="S28">
-        <v>98.031221557007484</v>
+        <v>9.8031221557007484E-2</v>
       </c>
       <c r="T28">
-        <v>98.111482036581407</v>
+        <v>9.8111482036581404E-2</v>
       </c>
       <c r="U28">
-        <v>98.19174251615533</v>
+        <v>9.8191742516155325E-2</v>
       </c>
       <c r="V28">
-        <v>98.272002995729252</v>
+        <v>9.8272002995729246E-2</v>
       </c>
       <c r="W28">
-        <v>98.352263475303175</v>
+        <v>9.8352263475303181E-2</v>
       </c>
       <c r="X28">
-        <v>98.432523954877098</v>
+        <v>9.8432523954877102E-2</v>
       </c>
       <c r="Y28">
-        <v>98.575438527159918</v>
+        <v>9.8575438527159914E-2</v>
       </c>
       <c r="Z28">
-        <v>98.638092619868829</v>
+        <v>9.8638092619868833E-2</v>
       </c>
       <c r="AA28">
-        <v>98.700746712577725</v>
+        <v>9.8700746712577725E-2</v>
       </c>
       <c r="AB28">
-        <v>98.763400805286622</v>
+        <v>9.8763400805286616E-2</v>
       </c>
       <c r="AC28">
-        <v>98.826054897995533</v>
+        <v>9.8826054897995536E-2</v>
       </c>
       <c r="AD28">
-        <v>98.88870899070443</v>
+        <v>9.8888708990704427E-2</v>
       </c>
       <c r="AE28">
-        <v>98.951363083413341</v>
+        <v>9.8951363083413346E-2</v>
       </c>
       <c r="AF28">
-        <v>99.014017176122238</v>
+        <v>9.9014017176122238E-2</v>
       </c>
       <c r="AG28">
-        <v>99.076671268831134</v>
+        <v>9.9076671268831129E-2</v>
       </c>
       <c r="AH28">
-        <v>99.19072477139683</v>
+        <v>9.9190724771396829E-2</v>
       </c>
       <c r="AI28">
-        <v>99.242124181253629</v>
+        <v>9.9242124181253624E-2</v>
       </c>
       <c r="AJ28">
-        <v>99.293523591110414</v>
+        <v>9.9293523591110419E-2</v>
       </c>
       <c r="AK28">
-        <v>99.344923000967214</v>
+        <v>9.9344923000967214E-2</v>
       </c>
       <c r="AL28">
-        <v>99.396322410824013</v>
+        <v>9.9396322410824009E-2</v>
       </c>
       <c r="AM28">
-        <v>99.447721820680812</v>
+        <v>9.9447721820680818E-2</v>
       </c>
       <c r="AN28">
-        <v>99.499121230537597</v>
+        <v>9.9499121230537599E-2</v>
       </c>
       <c r="AO28">
-        <v>99.550520640394396</v>
+        <v>9.9550520640394394E-2</v>
       </c>
       <c r="AP28">
-        <v>99.601920050251195</v>
+        <v>9.9601920050251189E-2</v>
       </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.3">
@@ -4103,124 +4103,124 @@
         <v>46</v>
       </c>
       <c r="C29">
-        <v>123.20011074230479</v>
+        <v>0.12320011074230479</v>
       </c>
       <c r="D29">
-        <v>127.6818835463235</v>
+        <v>0.12768188354632351</v>
       </c>
       <c r="E29">
-        <v>122.92598470639157</v>
+        <v>0.12292598470639157</v>
       </c>
       <c r="F29">
-        <v>126.72363359600415</v>
+        <v>0.12672363359600414</v>
       </c>
       <c r="G29">
-        <v>129.44984975770555</v>
+        <v>0.12944984975770554</v>
       </c>
       <c r="H29">
-        <v>131.57802792268194</v>
+        <v>0.13157802792268194</v>
       </c>
       <c r="I29">
-        <v>133.3239170900205</v>
+        <v>0.13332391709002051</v>
       </c>
       <c r="J29">
-        <v>127.40518763642939</v>
+        <v>0.12740518763642938</v>
       </c>
       <c r="K29">
-        <v>128.76829571728018</v>
+        <v>0.12876829571728018</v>
       </c>
       <c r="L29">
-        <v>129.98189429894967</v>
+        <v>0.12998189429894966</v>
       </c>
       <c r="M29">
-        <v>131.04598338143785</v>
+        <v>0.13104598338143786</v>
       </c>
       <c r="N29">
-        <v>132.01450021451654</v>
+        <v>0.13201450021451655</v>
       </c>
       <c r="O29">
-        <v>132.88744479818581</v>
+        <v>0.13288744479818582</v>
       </c>
       <c r="P29">
-        <v>126.99625521217428</v>
+        <v>0.12699625521217428</v>
       </c>
       <c r="Q29">
-        <v>127.26887682834439</v>
+        <v>0.1272688768283444</v>
       </c>
       <c r="R29">
-        <v>127.5414984445145</v>
+        <v>0.12754149844451451</v>
       </c>
       <c r="S29">
-        <v>127.81412006068462</v>
+        <v>0.12781412006068463</v>
       </c>
       <c r="T29">
-        <v>128.08674167685484</v>
+        <v>0.12808674167685485</v>
       </c>
       <c r="U29">
-        <v>128.35936329302496</v>
+        <v>0.12835936329302494</v>
       </c>
       <c r="V29">
-        <v>128.63198490919507</v>
+        <v>0.12863198490919506</v>
       </c>
       <c r="W29">
-        <v>128.90460652536518</v>
+        <v>0.12890460652536517</v>
       </c>
       <c r="X29">
-        <v>129.17722814153529</v>
+        <v>0.12917722814153529</v>
       </c>
       <c r="Y29">
-        <v>129.66266757420323</v>
+        <v>0.12966266757420322</v>
       </c>
       <c r="Z29">
-        <v>129.87548539070082</v>
+        <v>0.12987548539070082</v>
       </c>
       <c r="AA29">
-        <v>130.08830320719846</v>
+        <v>0.13008830320719847</v>
       </c>
       <c r="AB29">
-        <v>130.30112102369611</v>
+        <v>0.13030112102369612</v>
       </c>
       <c r="AC29">
-        <v>130.51393884019376</v>
+        <v>0.13051393884019377</v>
       </c>
       <c r="AD29">
-        <v>130.72675665669141</v>
+        <v>0.1307267566566914</v>
       </c>
       <c r="AE29">
-        <v>130.93957447318905</v>
+        <v>0.13093957447318905</v>
       </c>
       <c r="AF29">
-        <v>131.15239228968665</v>
+        <v>0.13115239228968664</v>
       </c>
       <c r="AG29">
-        <v>131.36521010618429</v>
+        <v>0.13136521010618429</v>
       </c>
       <c r="AH29">
-        <v>131.75261683941579</v>
+        <v>0.1317526168394158</v>
       </c>
       <c r="AI29">
-        <v>131.92720575614965</v>
+        <v>0.13192720575614963</v>
       </c>
       <c r="AJ29">
-        <v>132.1017946728835</v>
+        <v>0.13210179467288349</v>
       </c>
       <c r="AK29">
-        <v>132.27638358961735</v>
+        <v>0.13227638358961735</v>
       </c>
       <c r="AL29">
-        <v>132.45097250635121</v>
+        <v>0.13245097250635121</v>
       </c>
       <c r="AM29">
-        <v>132.62556142308506</v>
+        <v>0.13262556142308507</v>
       </c>
       <c r="AN29">
-        <v>132.80015033981891</v>
+        <v>0.1328001503398189</v>
       </c>
       <c r="AO29">
-        <v>132.97473925655277</v>
+        <v>0.13297473925655276</v>
       </c>
       <c r="AP29">
-        <v>133.14932817328662</v>
+        <v>0.13314932817328662</v>
       </c>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.3">
@@ -4231,124 +4231,124 @@
         <v>47</v>
       </c>
       <c r="C30">
-        <v>71.821355552353921</v>
+        <v>7.1821355552353916E-2</v>
       </c>
       <c r="D30">
-        <v>88.216620212311469</v>
+        <v>8.821662021231147E-2</v>
       </c>
       <c r="E30">
-        <v>96.857697562378661</v>
+        <v>9.6857697562378664E-2</v>
       </c>
       <c r="F30">
-        <v>102.1654739327806</v>
+        <v>0.1021654739327806</v>
       </c>
       <c r="G30">
-        <v>105.97576449525616</v>
+        <v>0.10597576449525616</v>
       </c>
       <c r="H30">
-        <v>108.95020844845142</v>
+        <v>0.10895020844845142</v>
       </c>
       <c r="I30">
-        <v>111.39034694916619</v>
+        <v>0.11139034694916619</v>
       </c>
       <c r="J30">
-        <v>103.11804657339951</v>
+        <v>0.10311804657339951</v>
       </c>
       <c r="K30">
-        <v>105.02319185463728</v>
+        <v>0.10502319185463728</v>
       </c>
       <c r="L30">
-        <v>106.71937548355504</v>
+        <v>0.10671937548355503</v>
       </c>
       <c r="M30">
-        <v>108.20659746015269</v>
+        <v>0.1082065974601527</v>
       </c>
       <c r="N30">
-        <v>109.56024307363015</v>
+        <v>0.10956024307363015</v>
       </c>
       <c r="O30">
-        <v>110.78031232398752</v>
+        <v>0.11078031232398752</v>
       </c>
       <c r="P30">
-        <v>102.54650298902811</v>
+        <v>0.10254650298902811</v>
       </c>
       <c r="Q30">
-        <v>102.92753204527571</v>
+        <v>0.10292753204527572</v>
       </c>
       <c r="R30">
-        <v>103.3085611015232</v>
+        <v>0.1033085611015232</v>
       </c>
       <c r="S30">
-        <v>103.68959015777079</v>
+        <v>0.10368959015777079</v>
       </c>
       <c r="T30">
-        <v>104.07061921401839</v>
+        <v>0.10407061921401839</v>
       </c>
       <c r="U30">
-        <v>104.45164827026588</v>
+        <v>0.10445164827026587</v>
       </c>
       <c r="V30">
-        <v>104.83267732651348</v>
+        <v>0.10483267732651348</v>
       </c>
       <c r="W30">
-        <v>105.21370638276107</v>
+        <v>0.10521370638276108</v>
       </c>
       <c r="X30">
-        <v>105.59473543900856</v>
+        <v>0.10559473543900856</v>
       </c>
       <c r="Y30">
-        <v>106.2732088905758</v>
+        <v>0.1062732088905758</v>
       </c>
       <c r="Z30">
-        <v>106.57065328589533</v>
+        <v>0.10657065328589534</v>
       </c>
       <c r="AA30">
-        <v>106.86809768121486</v>
+        <v>0.10686809768121486</v>
       </c>
       <c r="AB30">
-        <v>107.16554207653439</v>
+        <v>0.10716554207653439</v>
       </c>
       <c r="AC30">
-        <v>107.46298647185381</v>
+        <v>0.10746298647185382</v>
       </c>
       <c r="AD30">
-        <v>107.76043086717334</v>
+        <v>0.10776043086717334</v>
       </c>
       <c r="AE30">
-        <v>108.05787526249287</v>
+        <v>0.10805787526249287</v>
       </c>
       <c r="AF30">
-        <v>108.3553196578124</v>
+        <v>0.10835531965781241</v>
       </c>
       <c r="AG30">
-        <v>108.65276405313193</v>
+        <v>0.10865276405313193</v>
       </c>
       <c r="AH30">
-        <v>109.1942222985229</v>
+        <v>0.10919422229852291</v>
       </c>
       <c r="AI30">
-        <v>109.4382361485944</v>
+        <v>0.10943823614859439</v>
       </c>
       <c r="AJ30">
-        <v>109.6822499986659</v>
+        <v>0.1096822499986659</v>
       </c>
       <c r="AK30">
-        <v>109.92626384873734</v>
+        <v>0.10992626384873734</v>
       </c>
       <c r="AL30">
-        <v>110.17027769880883</v>
+        <v>0.11017027769880883</v>
       </c>
       <c r="AM30">
-        <v>110.41429154888033</v>
+        <v>0.11041429154888033</v>
       </c>
       <c r="AN30">
-        <v>110.65830539895177</v>
+        <v>0.11065830539895177</v>
       </c>
       <c r="AO30">
-        <v>110.90231924902326</v>
+        <v>0.11090231924902326</v>
       </c>
       <c r="AP30">
-        <v>111.14633309909476</v>
+        <v>0.11114633309909476</v>
       </c>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.3">
@@ -4359,124 +4359,124 @@
         <v>48</v>
       </c>
       <c r="C31">
-        <v>23.536252927393111</v>
+        <v>2.3536252927393111E-2</v>
       </c>
       <c r="D31">
-        <v>37.679125565979263</v>
+        <v>3.7679125565979264E-2</v>
       </c>
       <c r="E31">
-        <v>40.305385514822206</v>
+        <v>4.0305385514822205E-2</v>
       </c>
       <c r="F31">
-        <v>43.62867120830613</v>
+        <v>4.362867120830613E-2</v>
       </c>
       <c r="G31">
-        <v>46.014356518053468</v>
+        <v>4.6014356518053467E-2</v>
       </c>
       <c r="H31">
-        <v>47.876704579822899</v>
+        <v>4.7876704579822897E-2</v>
       </c>
       <c r="I31">
-        <v>49.404515249233349</v>
+        <v>4.9404515249233345E-2</v>
       </c>
       <c r="J31">
-        <v>44.225092535742931</v>
+        <v>4.422509253574293E-2</v>
       </c>
       <c r="K31">
-        <v>45.417935190616618</v>
+        <v>4.5417935190616619E-2</v>
       </c>
       <c r="L31">
-        <v>46.479943533495828</v>
+        <v>4.6479943533495827E-2</v>
       </c>
       <c r="M31">
-        <v>47.411117564380504</v>
+        <v>4.7411117564380503E-2</v>
       </c>
       <c r="N31">
-        <v>48.258657247175506</v>
+        <v>4.8258657247175506E-2</v>
       </c>
       <c r="O31">
-        <v>49.02256258188072</v>
+        <v>4.9022562581880723E-2</v>
       </c>
       <c r="P31">
-        <v>43.867239739280819</v>
+        <v>4.3867239739280819E-2</v>
       </c>
       <c r="Q31">
-        <v>44.105808270255579</v>
+        <v>4.4105808270255578E-2</v>
       </c>
       <c r="R31">
-        <v>44.344376801230339</v>
+        <v>4.4344376801230337E-2</v>
       </c>
       <c r="S31">
-        <v>44.582945332205043</v>
+        <v>4.458294533220504E-2</v>
       </c>
       <c r="T31">
-        <v>44.821513863179803</v>
+        <v>4.4821513863179806E-2</v>
       </c>
       <c r="U31">
-        <v>45.060082394154506</v>
+        <v>4.5060082394154509E-2</v>
       </c>
       <c r="V31">
-        <v>45.298650925129266</v>
+        <v>4.5298650925129268E-2</v>
       </c>
       <c r="W31">
-        <v>45.537219456103969</v>
+        <v>4.5537219456103971E-2</v>
       </c>
       <c r="X31">
-        <v>45.775787987078729</v>
+        <v>4.577578798707873E-2</v>
       </c>
       <c r="Y31">
-        <v>46.200591324230402</v>
+        <v>4.6200591324230399E-2</v>
       </c>
       <c r="Z31">
-        <v>46.386826130407314</v>
+        <v>4.6386826130407316E-2</v>
       </c>
       <c r="AA31">
-        <v>46.573060936584284</v>
+        <v>4.6573060936584282E-2</v>
       </c>
       <c r="AB31">
-        <v>46.759295742761196</v>
+        <v>4.6759295742761199E-2</v>
       </c>
       <c r="AC31">
-        <v>46.945530548938166</v>
+        <v>4.6945530548938165E-2</v>
       </c>
       <c r="AD31">
-        <v>47.131765355115135</v>
+        <v>4.7131765355115138E-2</v>
       </c>
       <c r="AE31">
-        <v>47.318000161292048</v>
+        <v>4.7318000161292048E-2</v>
       </c>
       <c r="AF31">
-        <v>47.504234967469017</v>
+        <v>4.7504234967469014E-2</v>
       </c>
       <c r="AG31">
-        <v>47.69046977364593</v>
+        <v>4.7690469773645931E-2</v>
       </c>
       <c r="AH31">
-        <v>48.029485646763931</v>
+        <v>4.8029485646763931E-2</v>
       </c>
       <c r="AI31">
-        <v>48.182266713705019</v>
+        <v>4.818226671370502E-2</v>
       </c>
       <c r="AJ31">
-        <v>48.33504778064605</v>
+        <v>4.8335047780646054E-2</v>
       </c>
       <c r="AK31">
-        <v>48.487828847587082</v>
+        <v>4.8487828847587081E-2</v>
       </c>
       <c r="AL31">
-        <v>48.640609914528113</v>
+        <v>4.8640609914528114E-2</v>
       </c>
       <c r="AM31">
-        <v>48.793390981469202</v>
+        <v>4.8793390981469204E-2</v>
       </c>
       <c r="AN31">
-        <v>48.946172048410233</v>
+        <v>4.894617204841023E-2</v>
       </c>
       <c r="AO31">
-        <v>49.098953115351264</v>
+        <v>4.9098953115351264E-2</v>
       </c>
       <c r="AP31">
-        <v>49.251734182292296</v>
+        <v>4.9251734182292298E-2</v>
       </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.3">
@@ -4487,124 +4487,124 @@
         <v>49</v>
       </c>
       <c r="C32">
-        <v>3.3418841780832804</v>
+        <v>3.3418841780832806E-3</v>
       </c>
       <c r="D32">
-        <v>6.7740510749149339</v>
+        <v>6.7740510749149342E-3</v>
       </c>
       <c r="E32">
-        <v>7.5108628181253883</v>
+        <v>7.5108628181253878E-3</v>
       </c>
       <c r="F32">
-        <v>8.2833822194368025</v>
+        <v>8.2833822194368027E-3</v>
       </c>
       <c r="G32">
-        <v>8.837950305718719</v>
+        <v>8.8379503057187184E-3</v>
       </c>
       <c r="H32">
-        <v>9.2708652406376455</v>
+        <v>9.2708652406376449E-3</v>
       </c>
       <c r="I32">
-        <v>9.6260147801323477</v>
+        <v>9.6260147801323481E-3</v>
       </c>
       <c r="J32">
-        <v>8.4220242410072785</v>
+        <v>8.4220242410072785E-3</v>
       </c>
       <c r="K32">
-        <v>8.6993082841482448</v>
+        <v>8.6993082841482442E-3</v>
       </c>
       <c r="L32">
-        <v>8.9461790394484524</v>
+        <v>8.9461790394484517E-3</v>
       </c>
       <c r="M32">
-        <v>9.1626365069079156</v>
+        <v>9.162636506907915E-3</v>
       </c>
       <c r="N32">
-        <v>9.3596526255113162</v>
+        <v>9.3596526255113159E-3</v>
       </c>
       <c r="O32">
-        <v>9.5372273952586681</v>
+        <v>9.5372273952586684E-3</v>
       </c>
       <c r="P32">
-        <v>8.3388390280649958</v>
+        <v>8.3388390280649954E-3</v>
       </c>
       <c r="Q32">
-        <v>8.394295836693189</v>
+        <v>8.3942958366931882E-3</v>
       </c>
       <c r="R32">
-        <v>8.4497526453213823</v>
+        <v>8.4497526453213827E-3</v>
       </c>
       <c r="S32">
-        <v>8.5052094539495755</v>
+        <v>8.5052094539495755E-3</v>
       </c>
       <c r="T32">
-        <v>8.5606662625777687</v>
+        <v>8.5606662625777683E-3</v>
       </c>
       <c r="U32">
-        <v>8.6161230712059478</v>
+        <v>8.6161230712059472E-3</v>
       </c>
       <c r="V32">
-        <v>8.671579879834141</v>
+        <v>8.6715798798341417E-3</v>
       </c>
       <c r="W32">
-        <v>8.7270366884623343</v>
+        <v>8.7270366884623345E-3</v>
       </c>
       <c r="X32">
-        <v>8.7824934970905275</v>
+        <v>8.7824934970905273E-3</v>
       </c>
       <c r="Y32">
-        <v>8.8812417992106134</v>
+        <v>8.8812417992106141E-3</v>
       </c>
       <c r="Z32">
-        <v>8.9245332927025061</v>
+        <v>8.9245332927025064E-3</v>
       </c>
       <c r="AA32">
-        <v>8.9678247861943987</v>
+        <v>8.9678247861943988E-3</v>
       </c>
       <c r="AB32">
-        <v>9.0111162796862914</v>
+        <v>9.0111162796862911E-3</v>
       </c>
       <c r="AC32">
-        <v>9.054407773178184</v>
+        <v>9.0544077731781834E-3</v>
       </c>
       <c r="AD32">
-        <v>9.0976992666700767</v>
+        <v>9.0976992666700774E-3</v>
       </c>
       <c r="AE32">
-        <v>9.1409907601619693</v>
+        <v>9.1409907601619697E-3</v>
       </c>
       <c r="AF32">
-        <v>9.184282253653862</v>
+        <v>9.184282253653862E-3</v>
       </c>
       <c r="AG32">
-        <v>9.2275737471457546</v>
+        <v>9.2275737471457543E-3</v>
       </c>
       <c r="AH32">
-        <v>9.3063801945871063</v>
+        <v>9.3063801945871064E-3</v>
       </c>
       <c r="AI32">
-        <v>9.3418951485365795</v>
+        <v>9.34189514853658E-3</v>
       </c>
       <c r="AJ32">
-        <v>9.3774101024860528</v>
+        <v>9.3774101024860536E-3</v>
       </c>
       <c r="AK32">
-        <v>9.412925056435526</v>
+        <v>9.4129250564355255E-3</v>
       </c>
       <c r="AL32">
-        <v>9.4484400103849993</v>
+        <v>9.4484400103849991E-3</v>
       </c>
       <c r="AM32">
-        <v>9.4839549643344583</v>
+        <v>9.4839549643344588E-3</v>
       </c>
       <c r="AN32">
-        <v>9.5194699182839315</v>
+        <v>9.5194699182839307E-3</v>
       </c>
       <c r="AO32">
-        <v>9.5549848722334048</v>
+        <v>9.5549848722334043E-3</v>
       </c>
       <c r="AP32">
-        <v>9.590499826182878</v>
+        <v>9.5904998261828779E-3</v>
       </c>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.3">
@@ -4741,6 +4741,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010007E4401432919E48A67AF1BA2141DC10" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f238fd056868ddd03864e1b0a4fe0b69">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b87684af-bef0-40b7-97cd-63b35f783779" xmlns:ns4="29b2ff15-f619-4740-bc35-6887da9102a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6013f0be076e3a9d53357b091e11b7dd" ns3:_="" ns4:_="">
     <xsd:import namespace="b87684af-bef0-40b7-97cd-63b35f783779"/>
@@ -4943,22 +4958,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{084BCD95-D256-4A50-B729-A037E3A9C427}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="29b2ff15-f619-4740-bc35-6887da9102a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b87684af-bef0-40b7-97cd-63b35f783779"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0D10E17-62C8-431C-9A57-4556D136C58A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60668839-5326-4D29-93E4-A6CF630CF14D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4975,29 +5000,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0D10E17-62C8-431C-9A57-4556D136C58A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{084BCD95-D256-4A50-B729-A037E3A9C427}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b87684af-bef0-40b7-97cd-63b35f783779"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="29b2ff15-f619-4740-bc35-6887da9102a1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>